--- a/adeb_999_agencias_militares.xlsx
+++ b/adeb_999_agencias_militares.xlsx
@@ -1,25 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b74864980659\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fglopez/Documents/GitHub/a_reguladora/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA279EA-E3DE-544E-9200-F325B0F272C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28230" windowHeight="11040"/>
+    <workbookView xWindow="3440" yWindow="500" windowWidth="25360" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="adeb_999_agencias_militares_das" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="tab_gerais" sheetId="3" r:id="rId2"/>
+    <sheet name="adeb_999_agencias_militares_das" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId4"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="219">
   <si>
     <t>mes_arq</t>
   </si>
@@ -544,12 +563,144 @@
   </si>
   <si>
     <t>por_agencia_cargos_niveis_geral</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de total_militares_ars</t>
+  </si>
+  <si>
+    <t>Soma de total_militares_ars_com_cargo</t>
+  </si>
+  <si>
+    <t>Soma de total_agencias_total_cargos</t>
+  </si>
+  <si>
+    <t>Soma de total_agencias</t>
+  </si>
+  <si>
+    <t>Soma de militares_anac</t>
+  </si>
+  <si>
+    <t>Soma de militares_anvs</t>
+  </si>
+  <si>
+    <t>Soma de militares_anp</t>
+  </si>
+  <si>
+    <t>Soma de militares_total_servidores_agencias</t>
+  </si>
+  <si>
+    <t>Soma de militares_anac_cargos</t>
+  </si>
+  <si>
+    <t>Soma de militares_anvs_cargos</t>
+  </si>
+  <si>
+    <t>Soma de militares_anp_cargos</t>
+  </si>
+  <si>
+    <t>Soma de militares_total_agencias_cargos</t>
+  </si>
+  <si>
+    <t>Soma de militares_anac_alto_escalao</t>
+  </si>
+  <si>
+    <t>Soma de militares_anvs_alto_escalao</t>
+  </si>
+  <si>
+    <t>Soma de militares_anp_alto_escalao</t>
+  </si>
+  <si>
+    <t>Soma de militares_total_agencias_alto_escalao</t>
+  </si>
+  <si>
+    <t>Soma de anac_total_agencia</t>
+  </si>
+  <si>
+    <t>Soma de anvs_total_agencia</t>
+  </si>
+  <si>
+    <t>Soma de anp_total_agencia</t>
+  </si>
+  <si>
+    <t>Soma de anac_total_cargos</t>
+  </si>
+  <si>
+    <t>Soma de anvs_total_cargos</t>
+  </si>
+  <si>
+    <t>Soma de anp_total_cargos</t>
+  </si>
+  <si>
+    <t>Soma de anac_total_alto_escalao</t>
+  </si>
+  <si>
+    <t>Soma de anvs_total_alto_escalao</t>
+  </si>
+  <si>
+    <t>Soma de anp_total_alto_escalao</t>
+  </si>
+  <si>
+    <t>Soma de total_agencias_total_alto_escalao</t>
+  </si>
+  <si>
+    <t>total_alto_escalao_3ars</t>
+  </si>
+  <si>
+    <t>total_cargos_3ars</t>
+  </si>
+  <si>
+    <t>excluir as que estão em amarelo</t>
+  </si>
+  <si>
+    <t>total_servidores_3ars</t>
+  </si>
+  <si>
+    <t>total_alto_escalao_demais</t>
+  </si>
+  <si>
+    <t>total_cargos_demais</t>
+  </si>
+  <si>
+    <t>total_servidores_demais</t>
+  </si>
+  <si>
+    <t>totais gerais 3ars vs. outras</t>
+  </si>
+  <si>
+    <t>total_alto_escalao_militares_3ars</t>
+  </si>
+  <si>
+    <t>total_cargos_militares_3ars</t>
+  </si>
+  <si>
+    <t>total_servidores_militares_3ars</t>
+  </si>
+  <si>
+    <t>total_alto_escalao_militares_demais</t>
+  </si>
+  <si>
+    <t>total_cargos_militares_demais</t>
+  </si>
+  <si>
+    <t>total_servidores_militares_demais</t>
+  </si>
+  <si>
+    <t>totais militares 3 vs demais</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,8 +1017,38 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -982,6 +1163,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1027,9 +1217,38 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1061,10 +1280,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1092,183 +1311,3196 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45933.506901273147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{CE8A5A16-CE2F-EA44-95F9-9D306796C642}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="173">
+    <cacheField name="ano_arq" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2024" count="12">
+        <n v="2013"/>
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+        <n v="2024"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="mes_arq" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="total_militares_governo" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3263" maxValue="10989"/>
+    </cacheField>
+    <cacheField name="total_militares_ars" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="90"/>
+    </cacheField>
+    <cacheField name="total_militares_ars_com_cargo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="43"/>
+    </cacheField>
+    <cacheField name="por_agencia" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="militares_anac" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="32"/>
+    </cacheField>
+    <cacheField name="militares_aneel" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
+    </cacheField>
+    <cacheField name="militares_anatel" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="militares_antaq" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
+    </cacheField>
+    <cacheField name="militares_antt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11"/>
+    </cacheField>
+    <cacheField name="militares_anvs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="12"/>
+    </cacheField>
+    <cacheField name="militares_ancine" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+    </cacheField>
+    <cacheField name="militares_anp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="15"/>
+    </cacheField>
+    <cacheField name="militares_ans" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11"/>
+    </cacheField>
+    <cacheField name="militares_anm" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="militares_ana" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_total_servidores_agencias" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="90"/>
+    </cacheField>
+    <cacheField name="por_agencia_e_cargos" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="militares_anac_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="25"/>
+    </cacheField>
+    <cacheField name="militares_aneel_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="militares_anatel_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_antaq_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="militares_antt_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+    </cacheField>
+    <cacheField name="militares_anvs_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+    <cacheField name="militares_ancine_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="militares_anp_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
+    </cacheField>
+    <cacheField name="militares_ans_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="militares_anm_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_ana_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_total_agencias_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="43"/>
+    </cacheField>
+    <cacheField name="por_agencia_e_cargos_alto_escalao" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="militares_anac_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="10"/>
+    </cacheField>
+    <cacheField name="militares_aneel_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="militares_anatel_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_antaq_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_antt_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="militares_anvs_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+    <cacheField name="militares_ancine_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="militares_anp_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+    </cacheField>
+    <cacheField name="militares_ans_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_anm_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_ana_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_total_agencias_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="30"/>
+    </cacheField>
+    <cacheField name="por_patentes_e_cargos" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="militares_oficiais_generais_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
+    </cacheField>
+    <cacheField name="militares_oficiais_superiores_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="15"/>
+    </cacheField>
+    <cacheField name="militares_oficiais_intermediarios_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+    </cacheField>
+    <cacheField name="militares_oficiais_subalternos_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="13"/>
+    </cacheField>
+    <cacheField name="militares_pracas_ou_graduados" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9"/>
+    </cacheField>
+    <cacheField name="militares_invalidos_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_alunos_cadetes_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="por_patentes_total" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="militares_oficiais_generais_total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
+    </cacheField>
+    <cacheField name="militares_oficiais_superiores_total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="16"/>
+    </cacheField>
+    <cacheField name="militares_oficiais_intermediarios_total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+    </cacheField>
+    <cacheField name="militares_oficiais_subalternos_total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="27"/>
+    </cacheField>
+    <cacheField name="militares_pracas_ou_graduados_total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="37"/>
+    </cacheField>
+    <cacheField name="militares_invalidos_total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_alunos_cadetes_total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="por_agencia_cargos_niveis" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="militares_anac_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="8"/>
+    </cacheField>
+    <cacheField name="militares_anac_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_anac_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="militares_aneel_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_aneel_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_aneel_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_anatel_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_anatel_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_anatel_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_antaq_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_antaq_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_antaq_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_antt_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="militares_antt_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_antt_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_anvs_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="militares_anvs_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_anvs_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_ancine_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="militares_ancine_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_ancine_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_anp_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+    <cacheField name="militares_anp_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="militares_anp_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_ans_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_ans_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_ans_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_anm_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_anm_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_anm_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_ana_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_ana_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="militares_ana_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="militares_total_agencias_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="21"/>
+    </cacheField>
+    <cacheField name="militares_total_agencias_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="militares_total_agencias_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="separador_totais" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="anac_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1348" maxValue="1511"/>
+    </cacheField>
+    <cacheField name="aneel_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="656" maxValue="734"/>
+    </cacheField>
+    <cacheField name="anatel_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1426" maxValue="1583"/>
+    </cacheField>
+    <cacheField name="antaq_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="335" maxValue="451"/>
+    </cacheField>
+    <cacheField name="antt_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1100" maxValue="1286"/>
+    </cacheField>
+    <cacheField name="anvs_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1682" maxValue="2102"/>
+    </cacheField>
+    <cacheField name="ancine_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="334" maxValue="434"/>
+    </cacheField>
+    <cacheField name="anp_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="732" maxValue="991"/>
+    </cacheField>
+    <cacheField name="ans_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="644" maxValue="876"/>
+    </cacheField>
+    <cacheField name="anm_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1103"/>
+    </cacheField>
+    <cacheField name="ana_total_agencia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="332" maxValue="417"/>
+    </cacheField>
+    <cacheField name="total_agencias" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9175" maxValue="10714"/>
+    </cacheField>
+    <cacheField name="anac_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="382" maxValue="472"/>
+    </cacheField>
+    <cacheField name="aneel_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="226" maxValue="295"/>
+    </cacheField>
+    <cacheField name="anatel_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="479" maxValue="548"/>
+    </cacheField>
+    <cacheField name="antaq_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="129" maxValue="153"/>
+    </cacheField>
+    <cacheField name="antt_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="344" maxValue="399"/>
+    </cacheField>
+    <cacheField name="anvs_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="397" maxValue="492"/>
+    </cacheField>
+    <cacheField name="ancine_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="127" maxValue="195"/>
+    </cacheField>
+    <cacheField name="anp_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="327" maxValue="432"/>
+    </cacheField>
+    <cacheField name="ans_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="181" maxValue="237"/>
+    </cacheField>
+    <cacheField name="anm_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="260"/>
+    </cacheField>
+    <cacheField name="ana_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="130" maxValue="210"/>
+    </cacheField>
+    <cacheField name="total_agencias_total_cargos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2746" maxValue="3553"/>
+    </cacheField>
+    <cacheField name="anac_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="129" maxValue="156"/>
+    </cacheField>
+    <cacheField name="aneel_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="58" maxValue="87"/>
+    </cacheField>
+    <cacheField name="anatel_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="142" maxValue="160"/>
+    </cacheField>
+    <cacheField name="antaq_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="39" maxValue="45"/>
+    </cacheField>
+    <cacheField name="antt_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="220"/>
+    </cacheField>
+    <cacheField name="anvs_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="90" maxValue="121"/>
+    </cacheField>
+    <cacheField name="ancine_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="61" maxValue="106"/>
+    </cacheField>
+    <cacheField name="anp_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="103" maxValue="148"/>
+    </cacheField>
+    <cacheField name="ans_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="80" maxValue="117"/>
+    </cacheField>
+    <cacheField name="anm_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="80"/>
+    </cacheField>
+    <cacheField name="ana_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="81" maxValue="128"/>
+    </cacheField>
+    <cacheField name="total_agencias_total_alto_escalao" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="933" maxValue="1284"/>
+    </cacheField>
+    <cacheField name="por_agencia_cargos_niveis_geral" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="total_anac_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="115" maxValue="142"/>
+    </cacheField>
+    <cacheField name="total_anac_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="11"/>
+    </cacheField>
+    <cacheField name="total_anac_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="total_aneel_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="39" maxValue="58"/>
+    </cacheField>
+    <cacheField name="total_aneel_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="14" maxValue="24"/>
+    </cacheField>
+    <cacheField name="total_aneel_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="6"/>
+    </cacheField>
+    <cacheField name="total_anatel_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="127" maxValue="143"/>
+    </cacheField>
+    <cacheField name="total_anatel_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="10"/>
+    </cacheField>
+    <cacheField name="total_anatel_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="7"/>
+    </cacheField>
+    <cacheField name="total_antaq_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="31" maxValue="38"/>
+    </cacheField>
+    <cacheField name="total_antaq_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="5"/>
+    </cacheField>
+    <cacheField name="total_antaq_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="total_antt_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="88" maxValue="206"/>
+    </cacheField>
+    <cacheField name="total_antt_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="10"/>
+    </cacheField>
+    <cacheField name="total_antt_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="total_anvs_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="86" maxValue="109"/>
+    </cacheField>
+    <cacheField name="total_anvs_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="13"/>
+    </cacheField>
+    <cacheField name="total_anvs_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="6"/>
+    </cacheField>
+    <cacheField name="total_ancine_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="53" maxValue="96"/>
+    </cacheField>
+    <cacheField name="total_ancine_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="6"/>
+    </cacheField>
+    <cacheField name="total_ancine_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="total_anp_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="81" maxValue="121"/>
+    </cacheField>
+    <cacheField name="total_anp_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="24"/>
+    </cacheField>
+    <cacheField name="total_anp_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="6"/>
+    </cacheField>
+    <cacheField name="total_ans_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="75" maxValue="111"/>
+    </cacheField>
+    <cacheField name="total_ans_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+    <cacheField name="total_ans_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="total_anm_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="74"/>
+    </cacheField>
+    <cacheField name="total_anm_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="total_anm_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+    </cacheField>
+    <cacheField name="total_ana_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="61" maxValue="111"/>
+    </cacheField>
+    <cacheField name="total_ana_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="13" maxValue="16"/>
+    </cacheField>
+    <cacheField name="total_ana_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+    </cacheField>
+    <cacheField name="total_agencias_cargos_nivel_4" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="803" maxValue="1129"/>
+    </cacheField>
+    <cacheField name="total_agencias_cargos_nivel_5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="94" maxValue="110"/>
+    </cacheField>
+    <cacheField name="total_agencias_cargos_nivel_6" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="36" maxValue="55"/>
+    </cacheField>
+    <cacheField name="ano_arq_tot" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2024"/>
+    </cacheField>
+    <cacheField name="mes_arq_tot" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="3645"/>
+    <n v="37"/>
+    <n v="30"/>
+    <s v="---&gt;"/>
+    <n v="25"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="37"/>
+    <s v="---&gt;"/>
+    <n v="25"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30"/>
+    <s v="---&gt;"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+    <s v="---&gt;"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="5"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1348"/>
+    <n v="706"/>
+    <n v="1527"/>
+    <n v="355"/>
+    <n v="1231"/>
+    <n v="1949"/>
+    <n v="342"/>
+    <n v="732"/>
+    <n v="644"/>
+    <n v="0"/>
+    <n v="341"/>
+    <n v="9175"/>
+    <n v="382"/>
+    <n v="226"/>
+    <n v="479"/>
+    <n v="147"/>
+    <n v="344"/>
+    <n v="397"/>
+    <n v="131"/>
+    <n v="327"/>
+    <n v="181"/>
+    <n v="0"/>
+    <n v="132"/>
+    <n v="2746"/>
+    <n v="139"/>
+    <n v="87"/>
+    <n v="151"/>
+    <n v="41"/>
+    <n v="100"/>
+    <n v="90"/>
+    <n v="61"/>
+    <n v="103"/>
+    <n v="80"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="933"/>
+    <s v="---&gt;"/>
+    <n v="125"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="58"/>
+    <n v="24"/>
+    <n v="5"/>
+    <n v="140"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="35"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="88"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="86"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="54"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="81"/>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="75"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="61"/>
+    <n v="16"/>
+    <n v="4"/>
+    <n v="803"/>
+    <n v="94"/>
+    <n v="36"/>
+    <n v="2013"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="4572"/>
+    <n v="50"/>
+    <n v="24"/>
+    <s v="---&gt;"/>
+    <n v="28"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="50"/>
+    <s v="---&gt;"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="24"/>
+    <s v="---&gt;"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14"/>
+    <s v="---&gt;"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="7"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1466"/>
+    <n v="683"/>
+    <n v="1522"/>
+    <n v="345"/>
+    <n v="1272"/>
+    <n v="1883"/>
+    <n v="334"/>
+    <n v="842"/>
+    <n v="821"/>
+    <n v="0"/>
+    <n v="332"/>
+    <n v="9500"/>
+    <n v="423"/>
+    <n v="239"/>
+    <n v="534"/>
+    <n v="153"/>
+    <n v="392"/>
+    <n v="431"/>
+    <n v="127"/>
+    <n v="338"/>
+    <n v="200"/>
+    <n v="0"/>
+    <n v="131"/>
+    <n v="2968"/>
+    <n v="149"/>
+    <n v="86"/>
+    <n v="142"/>
+    <n v="45"/>
+    <n v="141"/>
+    <n v="98"/>
+    <n v="61"/>
+    <n v="109"/>
+    <n v="92"/>
+    <n v="0"/>
+    <n v="83"/>
+    <n v="1006"/>
+    <s v="---&gt;"/>
+    <n v="137"/>
+    <n v="8"/>
+    <n v="4"/>
+    <n v="57"/>
+    <n v="24"/>
+    <n v="5"/>
+    <n v="127"/>
+    <n v="10"/>
+    <n v="5"/>
+    <n v="38"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="127"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="93"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="53"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="85"/>
+    <n v="19"/>
+    <n v="5"/>
+    <n v="86"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="62"/>
+    <n v="16"/>
+    <n v="5"/>
+    <n v="865"/>
+    <n v="99"/>
+    <n v="42"/>
+    <n v="2014"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5619"/>
+    <n v="64"/>
+    <n v="28"/>
+    <s v="---&gt;"/>
+    <n v="32"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="64"/>
+    <s v="---&gt;"/>
+    <n v="23"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28"/>
+    <s v="---&gt;"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="14"/>
+    <s v="---&gt;"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="7"/>
+    <n v="22"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1463"/>
+    <n v="729"/>
+    <n v="1508"/>
+    <n v="335"/>
+    <n v="1286"/>
+    <n v="2102"/>
+    <n v="423"/>
+    <n v="841"/>
+    <n v="876"/>
+    <n v="0"/>
+    <n v="348"/>
+    <n v="9911"/>
+    <n v="416"/>
+    <n v="242"/>
+    <n v="522"/>
+    <n v="143"/>
+    <n v="392"/>
+    <n v="425"/>
+    <n v="154"/>
+    <n v="381"/>
+    <n v="211"/>
+    <n v="0"/>
+    <n v="130"/>
+    <n v="3016"/>
+    <n v="140"/>
+    <n v="81"/>
+    <n v="143"/>
+    <n v="42"/>
+    <n v="151"/>
+    <n v="109"/>
+    <n v="82"/>
+    <n v="121"/>
+    <n v="90"/>
+    <n v="0"/>
+    <n v="82"/>
+    <n v="1041"/>
+    <s v="---&gt;"/>
+    <n v="128"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="55"/>
+    <n v="21"/>
+    <n v="5"/>
+    <n v="129"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="34"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="138"/>
+    <n v="9"/>
+    <n v="4"/>
+    <n v="92"/>
+    <n v="13"/>
+    <n v="4"/>
+    <n v="73"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="96"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="84"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="62"/>
+    <n v="16"/>
+    <n v="4"/>
+    <n v="891"/>
+    <n v="110"/>
+    <n v="40"/>
+    <n v="2015"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="7022"/>
+    <n v="68"/>
+    <n v="29"/>
+    <s v="---&gt;"/>
+    <n v="29"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="68"/>
+    <s v="---&gt;"/>
+    <n v="21"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="29"/>
+    <s v="---&gt;"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="13"/>
+    <s v="---&gt;"/>
+    <n v="2"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="6"/>
+    <n v="23"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1440"/>
+    <n v="708"/>
+    <n v="1583"/>
+    <n v="447"/>
+    <n v="1281"/>
+    <n v="2051"/>
+    <n v="412"/>
+    <n v="845"/>
+    <n v="853"/>
+    <n v="0"/>
+    <n v="349"/>
+    <n v="9969"/>
+    <n v="436"/>
+    <n v="258"/>
+    <n v="538"/>
+    <n v="139"/>
+    <n v="399"/>
+    <n v="443"/>
+    <n v="169"/>
+    <n v="366"/>
+    <n v="224"/>
+    <n v="0"/>
+    <n v="176"/>
+    <n v="3148"/>
+    <n v="147"/>
+    <n v="70"/>
+    <n v="150"/>
+    <n v="41"/>
+    <n v="156"/>
+    <n v="114"/>
+    <n v="92"/>
+    <n v="119"/>
+    <n v="91"/>
+    <n v="0"/>
+    <n v="101"/>
+    <n v="1081"/>
+    <s v="---&gt;"/>
+    <n v="135"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="45"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="134"/>
+    <n v="10"/>
+    <n v="6"/>
+    <n v="33"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="142"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="96"/>
+    <n v="13"/>
+    <n v="5"/>
+    <n v="82"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="96"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="84"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="80"/>
+    <n v="16"/>
+    <n v="5"/>
+    <n v="927"/>
+    <n v="110"/>
+    <n v="44"/>
+    <n v="2016"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="7825"/>
+    <n v="63"/>
+    <n v="28"/>
+    <s v="---&gt;"/>
+    <n v="26"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="63"/>
+    <s v="---&gt;"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28"/>
+    <s v="---&gt;"/>
+    <n v="8"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="---&gt;"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="6"/>
+    <n v="21"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1455"/>
+    <n v="695"/>
+    <n v="1564"/>
+    <n v="451"/>
+    <n v="1262"/>
+    <n v="2001"/>
+    <n v="413"/>
+    <n v="853"/>
+    <n v="806"/>
+    <n v="0"/>
+    <n v="354"/>
+    <n v="9854"/>
+    <n v="452"/>
+    <n v="271"/>
+    <n v="548"/>
+    <n v="143"/>
+    <n v="396"/>
+    <n v="489"/>
+    <n v="168"/>
+    <n v="386"/>
+    <n v="229"/>
+    <n v="0"/>
+    <n v="177"/>
+    <n v="3259"/>
+    <n v="156"/>
+    <n v="73"/>
+    <n v="160"/>
+    <n v="42"/>
+    <n v="162"/>
+    <n v="121"/>
+    <n v="91"/>
+    <n v="121"/>
+    <n v="108"/>
+    <n v="0"/>
+    <n v="102"/>
+    <n v="1136"/>
+    <s v="---&gt;"/>
+    <n v="142"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="47"/>
+    <n v="21"/>
+    <n v="5"/>
+    <n v="143"/>
+    <n v="10"/>
+    <n v="7"/>
+    <n v="34"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="147"/>
+    <n v="10"/>
+    <n v="5"/>
+    <n v="108"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="82"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="94"/>
+    <n v="21"/>
+    <n v="6"/>
+    <n v="101"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="16"/>
+    <n v="5"/>
+    <n v="979"/>
+    <n v="107"/>
+    <n v="50"/>
+    <n v="2017"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="8462"/>
+    <n v="71"/>
+    <n v="23"/>
+    <s v="---&gt;"/>
+    <n v="30"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="71"/>
+    <s v="---&gt;"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="23"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="---&gt;"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="6"/>
+    <n v="27"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1511"/>
+    <n v="689"/>
+    <n v="1537"/>
+    <n v="440"/>
+    <n v="1228"/>
+    <n v="1919"/>
+    <n v="408"/>
+    <n v="841"/>
+    <n v="867"/>
+    <n v="0"/>
+    <n v="357"/>
+    <n v="9797"/>
+    <n v="455"/>
+    <n v="276"/>
+    <n v="538"/>
+    <n v="135"/>
+    <n v="390"/>
+    <n v="463"/>
+    <n v="194"/>
+    <n v="389"/>
+    <n v="227"/>
+    <n v="0"/>
+    <n v="179"/>
+    <n v="3246"/>
+    <n v="141"/>
+    <n v="73"/>
+    <n v="150"/>
+    <n v="43"/>
+    <n v="156"/>
+    <n v="106"/>
+    <n v="105"/>
+    <n v="120"/>
+    <n v="110"/>
+    <n v="0"/>
+    <n v="110"/>
+    <n v="1114"/>
+    <s v="---&gt;"/>
+    <n v="127"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="47"/>
+    <n v="21"/>
+    <n v="5"/>
+    <n v="134"/>
+    <n v="10"/>
+    <n v="6"/>
+    <n v="35"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="142"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="95"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="96"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="92"/>
+    <n v="23"/>
+    <n v="5"/>
+    <n v="103"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="89"/>
+    <n v="16"/>
+    <n v="5"/>
+    <n v="960"/>
+    <n v="107"/>
+    <n v="47"/>
+    <n v="2018"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="8901"/>
+    <n v="62"/>
+    <n v="21"/>
+    <s v="---&gt;"/>
+    <n v="24"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="62"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21"/>
+    <s v="---&gt;"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="---&gt;"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="26"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1477"/>
+    <n v="680"/>
+    <n v="1507"/>
+    <n v="419"/>
+    <n v="1199"/>
+    <n v="1830"/>
+    <n v="394"/>
+    <n v="822"/>
+    <n v="783"/>
+    <n v="0"/>
+    <n v="361"/>
+    <n v="9472"/>
+    <n v="447"/>
+    <n v="286"/>
+    <n v="532"/>
+    <n v="139"/>
+    <n v="365"/>
+    <n v="492"/>
+    <n v="195"/>
+    <n v="388"/>
+    <n v="218"/>
+    <n v="0"/>
+    <n v="186"/>
+    <n v="3248"/>
+    <n v="137"/>
+    <n v="73"/>
+    <n v="150"/>
+    <n v="41"/>
+    <n v="164"/>
+    <n v="106"/>
+    <n v="106"/>
+    <n v="130"/>
+    <n v="114"/>
+    <n v="0"/>
+    <n v="111"/>
+    <n v="1132"/>
+    <s v="---&gt;"/>
+    <n v="123"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="48"/>
+    <n v="19"/>
+    <n v="6"/>
+    <n v="134"/>
+    <n v="9"/>
+    <n v="7"/>
+    <n v="33"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="149"/>
+    <n v="10"/>
+    <n v="5"/>
+    <n v="95"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="96"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="102"/>
+    <n v="23"/>
+    <n v="5"/>
+    <n v="106"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="91"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="977"/>
+    <n v="106"/>
+    <n v="49"/>
+    <n v="2019"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="9402"/>
+    <n v="66"/>
+    <n v="30"/>
+    <s v="---&gt;"/>
+    <n v="23"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="66"/>
+    <s v="---&gt;"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30"/>
+    <s v="---&gt;"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="19"/>
+    <s v="---&gt;"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="7"/>
+    <n v="25"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1403"/>
+    <n v="656"/>
+    <n v="1433"/>
+    <n v="395"/>
+    <n v="1156"/>
+    <n v="1682"/>
+    <n v="397"/>
+    <n v="808"/>
+    <n v="755"/>
+    <n v="1058"/>
+    <n v="348"/>
+    <n v="10090"/>
+    <n v="445"/>
+    <n v="287"/>
+    <n v="533"/>
+    <n v="138"/>
+    <n v="365"/>
+    <n v="458"/>
+    <n v="179"/>
+    <n v="384"/>
+    <n v="224"/>
+    <n v="249"/>
+    <n v="183"/>
+    <n v="3445"/>
+    <n v="135"/>
+    <n v="71"/>
+    <n v="148"/>
+    <n v="44"/>
+    <n v="171"/>
+    <n v="116"/>
+    <n v="97"/>
+    <n v="126"/>
+    <n v="111"/>
+    <n v="49"/>
+    <n v="109"/>
+    <n v="1177"/>
+    <s v="---&gt;"/>
+    <n v="122"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="47"/>
+    <n v="19"/>
+    <n v="5"/>
+    <n v="133"/>
+    <n v="10"/>
+    <n v="5"/>
+    <n v="36"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="157"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="105"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="90"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="99"/>
+    <n v="22"/>
+    <n v="5"/>
+    <n v="104"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="44"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="90"/>
+    <n v="15"/>
+    <n v="4"/>
+    <n v="1027"/>
+    <n v="103"/>
+    <n v="47"/>
+    <n v="2020"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="10989"/>
+    <n v="90"/>
+    <n v="40"/>
+    <s v="---&gt;"/>
+    <n v="27"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="11"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="14"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="90"/>
+    <s v="---&gt;"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="40"/>
+    <s v="---&gt;"/>
+    <n v="8"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28"/>
+    <s v="---&gt;"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="7"/>
+    <n v="26"/>
+    <n v="37"/>
+    <n v="0"/>
+    <n v="2"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="4"/>
+    <n v="3"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1449"/>
+    <n v="734"/>
+    <n v="1518"/>
+    <n v="423"/>
+    <n v="1238"/>
+    <n v="1737"/>
+    <n v="434"/>
+    <n v="933"/>
+    <n v="765"/>
+    <n v="1103"/>
+    <n v="380"/>
+    <n v="10714"/>
+    <n v="470"/>
+    <n v="292"/>
+    <n v="530"/>
+    <n v="134"/>
+    <n v="354"/>
+    <n v="463"/>
+    <n v="157"/>
+    <n v="403"/>
+    <n v="229"/>
+    <n v="230"/>
+    <n v="184"/>
+    <n v="3446"/>
+    <n v="129"/>
+    <n v="76"/>
+    <n v="148"/>
+    <n v="41"/>
+    <n v="196"/>
+    <n v="117"/>
+    <n v="79"/>
+    <n v="126"/>
+    <n v="109"/>
+    <n v="52"/>
+    <n v="111"/>
+    <n v="1184"/>
+    <s v="---&gt;"/>
+    <n v="115"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="53"/>
+    <n v="18"/>
+    <n v="5"/>
+    <n v="133"/>
+    <n v="10"/>
+    <n v="5"/>
+    <n v="33"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="184"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="104"/>
+    <n v="8"/>
+    <n v="5"/>
+    <n v="73"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="98"/>
+    <n v="23"/>
+    <n v="5"/>
+    <n v="105"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="47"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="92"/>
+    <n v="15"/>
+    <n v="4"/>
+    <n v="1037"/>
+    <n v="104"/>
+    <n v="43"/>
+    <n v="2021"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="10354"/>
+    <n v="79"/>
+    <n v="40"/>
+    <s v="---&gt;"/>
+    <n v="27"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="79"/>
+    <s v="---&gt;"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="40"/>
+    <s v="---&gt;"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="29"/>
+    <s v="---&gt;"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="24"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1412"/>
+    <n v="714"/>
+    <n v="1464"/>
+    <n v="436"/>
+    <n v="1181"/>
+    <n v="1780"/>
+    <n v="432"/>
+    <n v="928"/>
+    <n v="743"/>
+    <n v="1067"/>
+    <n v="364"/>
+    <n v="10521"/>
+    <n v="469"/>
+    <n v="295"/>
+    <n v="524"/>
+    <n v="129"/>
+    <n v="354"/>
+    <n v="450"/>
+    <n v="162"/>
+    <n v="401"/>
+    <n v="228"/>
+    <n v="234"/>
+    <n v="204"/>
+    <n v="3450"/>
+    <n v="134"/>
+    <n v="75"/>
+    <n v="149"/>
+    <n v="39"/>
+    <n v="200"/>
+    <n v="114"/>
+    <n v="83"/>
+    <n v="128"/>
+    <n v="105"/>
+    <n v="55"/>
+    <n v="121"/>
+    <n v="1203"/>
+    <s v="---&gt;"/>
+    <n v="118"/>
+    <n v="11"/>
+    <n v="5"/>
+    <n v="51"/>
+    <n v="19"/>
+    <n v="5"/>
+    <n v="135"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="31"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="186"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="101"/>
+    <n v="8"/>
+    <n v="5"/>
+    <n v="74"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="101"/>
+    <n v="24"/>
+    <n v="3"/>
+    <n v="102"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="50"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="102"/>
+    <n v="15"/>
+    <n v="4"/>
+    <n v="1051"/>
+    <n v="109"/>
+    <n v="43"/>
+    <n v="2022"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="9248"/>
+    <n v="78"/>
+    <n v="43"/>
+    <s v="---&gt;"/>
+    <n v="24"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="78"/>
+    <s v="---&gt;"/>
+    <n v="16"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="43"/>
+    <s v="---&gt;"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="30"/>
+    <s v="---&gt;"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="23"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="---&gt;"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="5"/>
+    <n v="5"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1400"/>
+    <n v="702"/>
+    <n v="1437"/>
+    <n v="432"/>
+    <n v="1139"/>
+    <n v="1753"/>
+    <n v="415"/>
+    <n v="959"/>
+    <n v="693"/>
+    <n v="1044"/>
+    <n v="394"/>
+    <n v="10368"/>
+    <n v="472"/>
+    <n v="289"/>
+    <n v="528"/>
+    <n v="141"/>
+    <n v="393"/>
+    <n v="455"/>
+    <n v="162"/>
+    <n v="409"/>
+    <n v="234"/>
+    <n v="260"/>
+    <n v="210"/>
+    <n v="3553"/>
+    <n v="136"/>
+    <n v="70"/>
+    <n v="156"/>
+    <n v="42"/>
+    <n v="220"/>
+    <n v="121"/>
+    <n v="81"/>
+    <n v="135"/>
+    <n v="115"/>
+    <n v="80"/>
+    <n v="128"/>
+    <n v="1284"/>
+    <s v="---&gt;"/>
+    <n v="120"/>
+    <n v="11"/>
+    <n v="5"/>
+    <n v="46"/>
+    <n v="19"/>
+    <n v="5"/>
+    <n v="141"/>
+    <n v="10"/>
+    <n v="5"/>
+    <n v="32"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="206"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="108"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="74"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="107"/>
+    <n v="23"/>
+    <n v="5"/>
+    <n v="109"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="74"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="109"/>
+    <n v="14"/>
+    <n v="5"/>
+    <n v="1126"/>
+    <n v="103"/>
+    <n v="55"/>
+    <n v="2023"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="3263"/>
+    <n v="21"/>
+    <n v="20"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21"/>
+    <s v="---&gt;"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <s v="---&gt;"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="16"/>
+    <s v="---&gt;"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="---&gt;"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="5"/>
+    <s v="&lt;-##-&gt;"/>
+    <n v="1402"/>
+    <n v="683"/>
+    <n v="1426"/>
+    <n v="423"/>
+    <n v="1100"/>
+    <n v="1691"/>
+    <n v="411"/>
+    <n v="991"/>
+    <n v="711"/>
+    <n v="1079"/>
+    <n v="417"/>
+    <n v="10334"/>
+    <n v="458"/>
+    <n v="287"/>
+    <n v="522"/>
+    <n v="138"/>
+    <n v="348"/>
+    <n v="453"/>
+    <n v="165"/>
+    <n v="432"/>
+    <n v="237"/>
+    <n v="252"/>
+    <n v="197"/>
+    <n v="3489"/>
+    <n v="132"/>
+    <n v="58"/>
+    <n v="155"/>
+    <n v="44"/>
+    <n v="212"/>
+    <n v="120"/>
+    <n v="84"/>
+    <n v="148"/>
+    <n v="117"/>
+    <n v="77"/>
+    <n v="128"/>
+    <n v="1275"/>
+    <s v="---&gt;"/>
+    <n v="117"/>
+    <n v="11"/>
+    <n v="4"/>
+    <n v="39"/>
+    <n v="14"/>
+    <n v="5"/>
+    <n v="141"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="34"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="198"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="109"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="76"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="121"/>
+    <n v="22"/>
+    <n v="5"/>
+    <n v="111"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="72"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="111"/>
+    <n v="13"/>
+    <n v="4"/>
+    <n v="1129"/>
+    <n v="96"/>
+    <n v="50"/>
+    <n v="2024"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12CF3802-F3F5-B146-B978-A0C6578856C1}" name="Tabela dinâmica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:AA16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="173">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
+    <i i="11">
+      <x v="11"/>
+    </i>
+    <i i="12">
+      <x v="12"/>
+    </i>
+    <i i="13">
+      <x v="13"/>
+    </i>
+    <i i="14">
+      <x v="14"/>
+    </i>
+    <i i="15">
+      <x v="15"/>
+    </i>
+    <i i="16">
+      <x v="16"/>
+    </i>
+    <i i="17">
+      <x v="17"/>
+    </i>
+    <i i="18">
+      <x v="18"/>
+    </i>
+    <i i="19">
+      <x v="19"/>
+    </i>
+    <i i="20">
+      <x v="20"/>
+    </i>
+    <i i="21">
+      <x v="21"/>
+    </i>
+    <i i="22">
+      <x v="22"/>
+    </i>
+    <i i="23">
+      <x v="23"/>
+    </i>
+    <i i="24">
+      <x v="24"/>
+    </i>
+    <i i="25">
+      <x v="25"/>
+    </i>
+  </colItems>
+  <dataFields count="26">
+    <dataField name="Soma de total_agencias_total_alto_escalao" fld="133" baseField="0" baseItem="0"/>
+    <dataField name="Soma de anp_total_alto_escalao" fld="129" baseField="0" baseItem="0"/>
+    <dataField name="Soma de anvs_total_alto_escalao" fld="127" baseField="0" baseItem="0"/>
+    <dataField name="Soma de anac_total_alto_escalao" fld="122" baseField="0" baseItem="0"/>
+    <dataField name="Soma de anp_total_cargos" fld="117" baseField="0" baseItem="0"/>
+    <dataField name="Soma de anvs_total_cargos" fld="115" baseField="0" baseItem="0"/>
+    <dataField name="Soma de anac_total_cargos" fld="110" baseField="0" baseItem="0"/>
+    <dataField name="Soma de anp_total_agencia" fld="105" baseField="0" baseItem="0"/>
+    <dataField name="Soma de anvs_total_agencia" fld="103" baseField="0" baseItem="0"/>
+    <dataField name="Soma de anac_total_agencia" fld="98" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_total_agencias_alto_escalao" fld="43" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_anp_alto_escalao" fld="39" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_anvs_alto_escalao" fld="37" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_anac_alto_escalao" fld="32" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_total_agencias_cargos" fld="30" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_anp_cargos" fld="26" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_anvs_cargos" fld="24" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_anac_cargos" fld="19" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_total_servidores_agencias" fld="17" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_anp" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_anvs" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Soma de militares_anac" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Soma de total_militares_ars" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Soma de total_militares_ars_com_cargo" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de total_agencias_total_cargos" fld="121" baseField="0" baseItem="0"/>
+    <dataField name="Soma de total_agencias" fld="109" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:FQ13" totalsRowShown="0">
-  <autoFilter ref="A1:FQ13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:FQ13" totalsRowShown="0">
+  <autoFilter ref="A1:FQ13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="173">
-    <tableColumn id="1" name="ano_arq"/>
-    <tableColumn id="2" name="mes_arq"/>
-    <tableColumn id="3" name="total_militares_governo" dataDxfId="0"/>
-    <tableColumn id="4" name="total_militares_ars"/>
-    <tableColumn id="5" name="total_militares_ars_com_cargo"/>
-    <tableColumn id="6" name="por_agencia"/>
-    <tableColumn id="7" name="militares_anac"/>
-    <tableColumn id="8" name="militares_aneel"/>
-    <tableColumn id="9" name="militares_anatel"/>
-    <tableColumn id="10" name="militares_antaq"/>
-    <tableColumn id="11" name="militares_antt"/>
-    <tableColumn id="12" name="militares_anvs"/>
-    <tableColumn id="13" name="militares_ancine"/>
-    <tableColumn id="14" name="militares_anp"/>
-    <tableColumn id="15" name="militares_ans"/>
-    <tableColumn id="16" name="militares_anm"/>
-    <tableColumn id="17" name="militares_ana"/>
-    <tableColumn id="18" name="militares_total_servidores_agencias"/>
-    <tableColumn id="19" name="por_agencia_e_cargos"/>
-    <tableColumn id="20" name="militares_anac_cargos"/>
-    <tableColumn id="21" name="militares_aneel_cargos"/>
-    <tableColumn id="22" name="militares_anatel_cargos"/>
-    <tableColumn id="23" name="militares_antaq_cargos"/>
-    <tableColumn id="24" name="militares_antt_cargos"/>
-    <tableColumn id="25" name="militares_anvs_cargos"/>
-    <tableColumn id="26" name="militares_ancine_cargos"/>
-    <tableColumn id="27" name="militares_anp_cargos"/>
-    <tableColumn id="28" name="militares_ans_cargos"/>
-    <tableColumn id="29" name="militares_anm_cargos"/>
-    <tableColumn id="30" name="militares_ana_cargos"/>
-    <tableColumn id="31" name="militares_total_agencias_cargos"/>
-    <tableColumn id="32" name="por_agencia_e_cargos_alto_escalao"/>
-    <tableColumn id="33" name="militares_anac_alto_escalao"/>
-    <tableColumn id="34" name="militares_aneel_alto_escalao"/>
-    <tableColumn id="35" name="militares_anatel_alto_escalao"/>
-    <tableColumn id="36" name="militares_antaq_alto_escalao"/>
-    <tableColumn id="37" name="militares_antt_alto_escalao"/>
-    <tableColumn id="38" name="militares_anvs_alto_escalao"/>
-    <tableColumn id="39" name="militares_ancine_alto_escalao"/>
-    <tableColumn id="40" name="militares_anp_alto_escalao"/>
-    <tableColumn id="41" name="militares_ans_alto_escalao"/>
-    <tableColumn id="42" name="militares_anm_alto_escalao"/>
-    <tableColumn id="43" name="militares_ana_alto_escalao"/>
-    <tableColumn id="44" name="militares_total_agencias_alto_escalao"/>
-    <tableColumn id="45" name="por_patentes_e_cargos"/>
-    <tableColumn id="46" name="militares_oficiais_generais_cargos"/>
-    <tableColumn id="47" name="militares_oficiais_superiores_cargos"/>
-    <tableColumn id="48" name="militares_oficiais_intermediarios_cargos"/>
-    <tableColumn id="49" name="militares_oficiais_subalternos_cargos"/>
-    <tableColumn id="50" name="militares_pracas_ou_graduados"/>
-    <tableColumn id="51" name="militares_invalidos_cargos"/>
-    <tableColumn id="52" name="militares_alunos_cadetes_cargos"/>
-    <tableColumn id="53" name="por_patentes_total"/>
-    <tableColumn id="54" name="militares_oficiais_generais_total"/>
-    <tableColumn id="55" name="militares_oficiais_superiores_total"/>
-    <tableColumn id="56" name="militares_oficiais_intermediarios_total"/>
-    <tableColumn id="57" name="militares_oficiais_subalternos_total"/>
-    <tableColumn id="58" name="militares_pracas_ou_graduados_total"/>
-    <tableColumn id="59" name="militares_invalidos_total"/>
-    <tableColumn id="60" name="militares_alunos_cadetes_total"/>
-    <tableColumn id="61" name="por_agencia_cargos_niveis"/>
-    <tableColumn id="62" name="militares_anac_cargos_nivel_4"/>
-    <tableColumn id="63" name="militares_anac_cargos_nivel_5"/>
-    <tableColumn id="64" name="militares_anac_cargos_nivel_6"/>
-    <tableColumn id="65" name="militares_aneel_cargos_nivel_4"/>
-    <tableColumn id="66" name="militares_aneel_cargos_nivel_5"/>
-    <tableColumn id="67" name="militares_aneel_cargos_nivel_6"/>
-    <tableColumn id="68" name="militares_anatel_cargos_nivel_4"/>
-    <tableColumn id="69" name="militares_anatel_cargos_nivel_5"/>
-    <tableColumn id="70" name="militares_anatel_cargos_nivel_6"/>
-    <tableColumn id="71" name="militares_antaq_cargos_nivel_4"/>
-    <tableColumn id="72" name="militares_antaq_cargos_nivel_5"/>
-    <tableColumn id="73" name="militares_antaq_cargos_nivel_6"/>
-    <tableColumn id="74" name="militares_antt_cargos_nivel_4"/>
-    <tableColumn id="75" name="militares_antt_cargos_nivel_5"/>
-    <tableColumn id="76" name="militares_antt_cargos_nivel_6"/>
-    <tableColumn id="77" name="militares_anvs_cargos_nivel_4"/>
-    <tableColumn id="78" name="militares_anvs_cargos_nivel_5"/>
-    <tableColumn id="79" name="militares_anvs_cargos_nivel_6"/>
-    <tableColumn id="80" name="militares_ancine_cargos_nivel_4"/>
-    <tableColumn id="81" name="militares_ancine_cargos_nivel_5"/>
-    <tableColumn id="82" name="militares_ancine_cargos_nivel_6"/>
-    <tableColumn id="83" name="militares_anp_cargos_nivel_4"/>
-    <tableColumn id="84" name="militares_anp_cargos_nivel_5"/>
-    <tableColumn id="85" name="militares_anp_cargos_nivel_6"/>
-    <tableColumn id="86" name="militares_ans_cargos_nivel_4"/>
-    <tableColumn id="87" name="militares_ans_cargos_nivel_5"/>
-    <tableColumn id="88" name="militares_ans_cargos_nivel_6"/>
-    <tableColumn id="89" name="militares_anm_cargos_nivel_4"/>
-    <tableColumn id="90" name="militares_anm_cargos_nivel_5"/>
-    <tableColumn id="91" name="militares_anm_cargos_nivel_6"/>
-    <tableColumn id="92" name="militares_ana_cargos_nivel_4"/>
-    <tableColumn id="93" name="militares_ana_cargos_nivel_5"/>
-    <tableColumn id="94" name="militares_ana_cargos_nivel_6"/>
-    <tableColumn id="95" name="militares_total_agencias_cargos_nivel_4"/>
-    <tableColumn id="96" name="militares_total_agencias_cargos_nivel_5"/>
-    <tableColumn id="97" name="militares_total_agencias_cargos_nivel_6"/>
-    <tableColumn id="98" name="separador_totais"/>
-    <tableColumn id="99" name="anac_total_agencia"/>
-    <tableColumn id="100" name="aneel_total_agencia"/>
-    <tableColumn id="101" name="anatel_total_agencia"/>
-    <tableColumn id="102" name="antaq_total_agencia"/>
-    <tableColumn id="103" name="antt_total_agencia"/>
-    <tableColumn id="104" name="anvs_total_agencia"/>
-    <tableColumn id="105" name="ancine_total_agencia"/>
-    <tableColumn id="106" name="anp_total_agencia"/>
-    <tableColumn id="107" name="ans_total_agencia"/>
-    <tableColumn id="108" name="anm_total_agencia"/>
-    <tableColumn id="109" name="ana_total_agencia"/>
-    <tableColumn id="110" name="total_agencias"/>
-    <tableColumn id="111" name="anac_total_cargos"/>
-    <tableColumn id="112" name="aneel_total_cargos"/>
-    <tableColumn id="113" name="anatel_total_cargos"/>
-    <tableColumn id="114" name="antaq_total_cargos"/>
-    <tableColumn id="115" name="antt_total_cargos"/>
-    <tableColumn id="116" name="anvs_total_cargos"/>
-    <tableColumn id="117" name="ancine_total_cargos"/>
-    <tableColumn id="118" name="anp_total_cargos"/>
-    <tableColumn id="119" name="ans_total_cargos"/>
-    <tableColumn id="120" name="anm_total_cargos"/>
-    <tableColumn id="121" name="ana_total_cargos"/>
-    <tableColumn id="122" name="total_agencias_total_cargos"/>
-    <tableColumn id="123" name="anac_total_alto_escalao"/>
-    <tableColumn id="124" name="aneel_total_alto_escalao"/>
-    <tableColumn id="125" name="anatel_total_alto_escalao"/>
-    <tableColumn id="126" name="antaq_total_alto_escalao"/>
-    <tableColumn id="127" name="antt_total_alto_escalao"/>
-    <tableColumn id="128" name="anvs_total_alto_escalao"/>
-    <tableColumn id="129" name="ancine_total_alto_escalao"/>
-    <tableColumn id="130" name="anp_total_alto_escalao"/>
-    <tableColumn id="131" name="ans_total_alto_escalao"/>
-    <tableColumn id="132" name="anm_total_alto_escalao"/>
-    <tableColumn id="133" name="ana_total_alto_escalao"/>
-    <tableColumn id="134" name="total_agencias_total_alto_escalao"/>
-    <tableColumn id="135" name="por_agencia_cargos_niveis_geral"/>
-    <tableColumn id="136" name="total_anac_cargos_nivel_4"/>
-    <tableColumn id="137" name="total_anac_cargos_nivel_5"/>
-    <tableColumn id="138" name="total_anac_cargos_nivel_6"/>
-    <tableColumn id="139" name="total_aneel_cargos_nivel_4"/>
-    <tableColumn id="140" name="total_aneel_cargos_nivel_5"/>
-    <tableColumn id="141" name="total_aneel_cargos_nivel_6"/>
-    <tableColumn id="142" name="total_anatel_cargos_nivel_4"/>
-    <tableColumn id="143" name="total_anatel_cargos_nivel_5"/>
-    <tableColumn id="144" name="total_anatel_cargos_nivel_6"/>
-    <tableColumn id="145" name="total_antaq_cargos_nivel_4"/>
-    <tableColumn id="146" name="total_antaq_cargos_nivel_5"/>
-    <tableColumn id="147" name="total_antaq_cargos_nivel_6"/>
-    <tableColumn id="148" name="total_antt_cargos_nivel_4"/>
-    <tableColumn id="149" name="total_antt_cargos_nivel_5"/>
-    <tableColumn id="150" name="total_antt_cargos_nivel_6"/>
-    <tableColumn id="151" name="total_anvs_cargos_nivel_4"/>
-    <tableColumn id="152" name="total_anvs_cargos_nivel_5"/>
-    <tableColumn id="153" name="total_anvs_cargos_nivel_6"/>
-    <tableColumn id="154" name="total_ancine_cargos_nivel_4"/>
-    <tableColumn id="155" name="total_ancine_cargos_nivel_5"/>
-    <tableColumn id="156" name="total_ancine_cargos_nivel_6"/>
-    <tableColumn id="157" name="total_anp_cargos_nivel_4"/>
-    <tableColumn id="158" name="total_anp_cargos_nivel_5"/>
-    <tableColumn id="159" name="total_anp_cargos_nivel_6"/>
-    <tableColumn id="160" name="total_ans_cargos_nivel_4"/>
-    <tableColumn id="161" name="total_ans_cargos_nivel_5"/>
-    <tableColumn id="162" name="total_ans_cargos_nivel_6"/>
-    <tableColumn id="163" name="total_anm_cargos_nivel_4"/>
-    <tableColumn id="164" name="total_anm_cargos_nivel_5"/>
-    <tableColumn id="165" name="total_anm_cargos_nivel_6"/>
-    <tableColumn id="166" name="total_ana_cargos_nivel_4"/>
-    <tableColumn id="167" name="total_ana_cargos_nivel_5"/>
-    <tableColumn id="168" name="total_ana_cargos_nivel_6"/>
-    <tableColumn id="169" name="total_agencias_cargos_nivel_4"/>
-    <tableColumn id="170" name="total_agencias_cargos_nivel_5"/>
-    <tableColumn id="171" name="total_agencias_cargos_nivel_6"/>
-    <tableColumn id="172" name="ano_arq_tot"/>
-    <tableColumn id="173" name="mes_arq_tot"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ano_arq"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mes_arq"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="total_militares_governo" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="total_militares_ars"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="total_militares_ars_com_cargo"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="por_agencia"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="militares_anac"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="militares_aneel"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="militares_anatel"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="militares_antaq"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="militares_antt"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="militares_anvs"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="militares_ancine"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="militares_anp"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="militares_ans"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="militares_anm"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="militares_ana"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="militares_total_servidores_agencias"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="por_agencia_e_cargos"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="militares_anac_cargos"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="militares_aneel_cargos"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="militares_anatel_cargos"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="militares_antaq_cargos"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="militares_antt_cargos"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="militares_anvs_cargos"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="militares_ancine_cargos"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="militares_anp_cargos"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="militares_ans_cargos"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="militares_anm_cargos"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="militares_ana_cargos"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="militares_total_agencias_cargos"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="por_agencia_e_cargos_alto_escalao"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="militares_anac_alto_escalao"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="militares_aneel_alto_escalao"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="militares_anatel_alto_escalao"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="militares_antaq_alto_escalao"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="militares_antt_alto_escalao"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="militares_anvs_alto_escalao"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="militares_ancine_alto_escalao"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="militares_anp_alto_escalao"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="militares_ans_alto_escalao"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="militares_anm_alto_escalao"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="militares_ana_alto_escalao"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="militares_total_agencias_alto_escalao"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="por_patentes_e_cargos"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="militares_oficiais_generais_cargos"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="militares_oficiais_superiores_cargos"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="militares_oficiais_intermediarios_cargos"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="militares_oficiais_subalternos_cargos"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="militares_pracas_ou_graduados"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="militares_invalidos_cargos"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="militares_alunos_cadetes_cargos"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="por_patentes_total"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="militares_oficiais_generais_total"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="militares_oficiais_superiores_total"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="militares_oficiais_intermediarios_total"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="militares_oficiais_subalternos_total"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="militares_pracas_ou_graduados_total"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="militares_invalidos_total"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="militares_alunos_cadetes_total"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="por_agencia_cargos_niveis"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="militares_anac_cargos_nivel_4"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="militares_anac_cargos_nivel_5"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="militares_anac_cargos_nivel_6"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="militares_aneel_cargos_nivel_4"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="militares_aneel_cargos_nivel_5"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="militares_aneel_cargos_nivel_6"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="militares_anatel_cargos_nivel_4"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="militares_anatel_cargos_nivel_5"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="militares_anatel_cargos_nivel_6"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="militares_antaq_cargos_nivel_4"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="militares_antaq_cargos_nivel_5"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="militares_antaq_cargos_nivel_6"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="militares_antt_cargos_nivel_4"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="militares_antt_cargos_nivel_5"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="militares_antt_cargos_nivel_6"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="militares_anvs_cargos_nivel_4"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="militares_anvs_cargos_nivel_5"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="militares_anvs_cargos_nivel_6"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="militares_ancine_cargos_nivel_4"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="militares_ancine_cargos_nivel_5"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="militares_ancine_cargos_nivel_6"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="militares_anp_cargos_nivel_4"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="militares_anp_cargos_nivel_5"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="militares_anp_cargos_nivel_6"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="militares_ans_cargos_nivel_4"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="militares_ans_cargos_nivel_5"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" name="militares_ans_cargos_nivel_6"/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" name="militares_anm_cargos_nivel_4"/>
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" name="militares_anm_cargos_nivel_5"/>
+    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0000-00005B000000}" name="militares_anm_cargos_nivel_6"/>
+    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0000-00005C000000}" name="militares_ana_cargos_nivel_4"/>
+    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0000-00005D000000}" name="militares_ana_cargos_nivel_5"/>
+    <tableColumn id="94" xr3:uid="{00000000-0010-0000-0000-00005E000000}" name="militares_ana_cargos_nivel_6"/>
+    <tableColumn id="95" xr3:uid="{00000000-0010-0000-0000-00005F000000}" name="militares_total_agencias_cargos_nivel_4"/>
+    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0000-000060000000}" name="militares_total_agencias_cargos_nivel_5"/>
+    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0000-000061000000}" name="militares_total_agencias_cargos_nivel_6"/>
+    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0000-000062000000}" name="separador_totais"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="anac_total_agencia"/>
+    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0000-000064000000}" name="aneel_total_agencia"/>
+    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0000-000065000000}" name="anatel_total_agencia"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0000-000066000000}" name="antaq_total_agencia"/>
+    <tableColumn id="103" xr3:uid="{00000000-0010-0000-0000-000067000000}" name="antt_total_agencia"/>
+    <tableColumn id="104" xr3:uid="{00000000-0010-0000-0000-000068000000}" name="anvs_total_agencia"/>
+    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0000-000069000000}" name="ancine_total_agencia"/>
+    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0000-00006A000000}" name="anp_total_agencia"/>
+    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0000-00006B000000}" name="ans_total_agencia"/>
+    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0000-00006C000000}" name="anm_total_agencia"/>
+    <tableColumn id="109" xr3:uid="{00000000-0010-0000-0000-00006D000000}" name="ana_total_agencia"/>
+    <tableColumn id="110" xr3:uid="{00000000-0010-0000-0000-00006E000000}" name="total_agencias"/>
+    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0000-00006F000000}" name="anac_total_cargos"/>
+    <tableColumn id="112" xr3:uid="{00000000-0010-0000-0000-000070000000}" name="aneel_total_cargos"/>
+    <tableColumn id="113" xr3:uid="{00000000-0010-0000-0000-000071000000}" name="anatel_total_cargos"/>
+    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0000-000072000000}" name="antaq_total_cargos"/>
+    <tableColumn id="115" xr3:uid="{00000000-0010-0000-0000-000073000000}" name="antt_total_cargos"/>
+    <tableColumn id="116" xr3:uid="{00000000-0010-0000-0000-000074000000}" name="anvs_total_cargos"/>
+    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0000-000075000000}" name="ancine_total_cargos"/>
+    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0000-000076000000}" name="anp_total_cargos"/>
+    <tableColumn id="119" xr3:uid="{00000000-0010-0000-0000-000077000000}" name="ans_total_cargos"/>
+    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0000-000078000000}" name="anm_total_cargos"/>
+    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0000-000079000000}" name="ana_total_cargos"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0000-00007A000000}" name="total_agencias_total_cargos"/>
+    <tableColumn id="123" xr3:uid="{00000000-0010-0000-0000-00007B000000}" name="anac_total_alto_escalao"/>
+    <tableColumn id="124" xr3:uid="{00000000-0010-0000-0000-00007C000000}" name="aneel_total_alto_escalao"/>
+    <tableColumn id="125" xr3:uid="{00000000-0010-0000-0000-00007D000000}" name="anatel_total_alto_escalao"/>
+    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0000-00007E000000}" name="antaq_total_alto_escalao"/>
+    <tableColumn id="127" xr3:uid="{00000000-0010-0000-0000-00007F000000}" name="antt_total_alto_escalao"/>
+    <tableColumn id="128" xr3:uid="{00000000-0010-0000-0000-000080000000}" name="anvs_total_alto_escalao"/>
+    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0000-000081000000}" name="ancine_total_alto_escalao"/>
+    <tableColumn id="130" xr3:uid="{00000000-0010-0000-0000-000082000000}" name="anp_total_alto_escalao"/>
+    <tableColumn id="131" xr3:uid="{00000000-0010-0000-0000-000083000000}" name="ans_total_alto_escalao"/>
+    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0000-000084000000}" name="anm_total_alto_escalao"/>
+    <tableColumn id="133" xr3:uid="{00000000-0010-0000-0000-000085000000}" name="ana_total_alto_escalao"/>
+    <tableColumn id="134" xr3:uid="{00000000-0010-0000-0000-000086000000}" name="total_agencias_total_alto_escalao"/>
+    <tableColumn id="135" xr3:uid="{00000000-0010-0000-0000-000087000000}" name="por_agencia_cargos_niveis_geral"/>
+    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0000-000088000000}" name="total_anac_cargos_nivel_4"/>
+    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0000-000089000000}" name="total_anac_cargos_nivel_5"/>
+    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0000-00008A000000}" name="total_anac_cargos_nivel_6"/>
+    <tableColumn id="139" xr3:uid="{00000000-0010-0000-0000-00008B000000}" name="total_aneel_cargos_nivel_4"/>
+    <tableColumn id="140" xr3:uid="{00000000-0010-0000-0000-00008C000000}" name="total_aneel_cargos_nivel_5"/>
+    <tableColumn id="141" xr3:uid="{00000000-0010-0000-0000-00008D000000}" name="total_aneel_cargos_nivel_6"/>
+    <tableColumn id="142" xr3:uid="{00000000-0010-0000-0000-00008E000000}" name="total_anatel_cargos_nivel_4"/>
+    <tableColumn id="143" xr3:uid="{00000000-0010-0000-0000-00008F000000}" name="total_anatel_cargos_nivel_5"/>
+    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0000-000090000000}" name="total_anatel_cargos_nivel_6"/>
+    <tableColumn id="145" xr3:uid="{00000000-0010-0000-0000-000091000000}" name="total_antaq_cargos_nivel_4"/>
+    <tableColumn id="146" xr3:uid="{00000000-0010-0000-0000-000092000000}" name="total_antaq_cargos_nivel_5"/>
+    <tableColumn id="147" xr3:uid="{00000000-0010-0000-0000-000093000000}" name="total_antaq_cargos_nivel_6"/>
+    <tableColumn id="148" xr3:uid="{00000000-0010-0000-0000-000094000000}" name="total_antt_cargos_nivel_4"/>
+    <tableColumn id="149" xr3:uid="{00000000-0010-0000-0000-000095000000}" name="total_antt_cargos_nivel_5"/>
+    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0000-000096000000}" name="total_antt_cargos_nivel_6"/>
+    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0000-000097000000}" name="total_anvs_cargos_nivel_4"/>
+    <tableColumn id="152" xr3:uid="{00000000-0010-0000-0000-000098000000}" name="total_anvs_cargos_nivel_5"/>
+    <tableColumn id="153" xr3:uid="{00000000-0010-0000-0000-000099000000}" name="total_anvs_cargos_nivel_6"/>
+    <tableColumn id="154" xr3:uid="{00000000-0010-0000-0000-00009A000000}" name="total_ancine_cargos_nivel_4"/>
+    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0000-00009B000000}" name="total_ancine_cargos_nivel_5"/>
+    <tableColumn id="156" xr3:uid="{00000000-0010-0000-0000-00009C000000}" name="total_ancine_cargos_nivel_6"/>
+    <tableColumn id="157" xr3:uid="{00000000-0010-0000-0000-00009D000000}" name="total_anp_cargos_nivel_4"/>
+    <tableColumn id="158" xr3:uid="{00000000-0010-0000-0000-00009E000000}" name="total_anp_cargos_nivel_5"/>
+    <tableColumn id="159" xr3:uid="{00000000-0010-0000-0000-00009F000000}" name="total_anp_cargos_nivel_6"/>
+    <tableColumn id="160" xr3:uid="{00000000-0010-0000-0000-0000A0000000}" name="total_ans_cargos_nivel_4"/>
+    <tableColumn id="161" xr3:uid="{00000000-0010-0000-0000-0000A1000000}" name="total_ans_cargos_nivel_5"/>
+    <tableColumn id="162" xr3:uid="{00000000-0010-0000-0000-0000A2000000}" name="total_ans_cargos_nivel_6"/>
+    <tableColumn id="163" xr3:uid="{00000000-0010-0000-0000-0000A3000000}" name="total_anm_cargos_nivel_4"/>
+    <tableColumn id="164" xr3:uid="{00000000-0010-0000-0000-0000A4000000}" name="total_anm_cargos_nivel_5"/>
+    <tableColumn id="165" xr3:uid="{00000000-0010-0000-0000-0000A5000000}" name="total_anm_cargos_nivel_6"/>
+    <tableColumn id="166" xr3:uid="{00000000-0010-0000-0000-0000A6000000}" name="total_ana_cargos_nivel_4"/>
+    <tableColumn id="167" xr3:uid="{00000000-0010-0000-0000-0000A7000000}" name="total_ana_cargos_nivel_5"/>
+    <tableColumn id="168" xr3:uid="{00000000-0010-0000-0000-0000A8000000}" name="total_ana_cargos_nivel_6"/>
+    <tableColumn id="169" xr3:uid="{00000000-0010-0000-0000-0000A9000000}" name="total_agencias_cargos_nivel_4"/>
+    <tableColumn id="170" xr3:uid="{00000000-0010-0000-0000-0000AA000000}" name="total_agencias_cargos_nivel_5"/>
+    <tableColumn id="171" xr3:uid="{00000000-0010-0000-0000-0000AB000000}" name="total_agencias_cargos_nivel_6"/>
+    <tableColumn id="172" xr3:uid="{00000000-0010-0000-0000-0000AC000000}" name="ano_arq_tot"/>
+    <tableColumn id="173" xr3:uid="{00000000-0010-0000-0000-0000AD000000}" name="mes_arq_tot"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1536,145 +4768,3135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEFDF1C-F0CA-024A-9E7A-FDB00CAA79EE}">
+  <dimension ref="A3:AA16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AA15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T3" t="s">
+        <v>184</v>
+      </c>
+      <c r="U3" t="s">
+        <v>183</v>
+      </c>
+      <c r="V3" t="s">
+        <v>182</v>
+      </c>
+      <c r="W3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="4">
+        <v>933</v>
+      </c>
+      <c r="C4" s="4">
+        <v>103</v>
+      </c>
+      <c r="D4" s="4">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4">
+        <v>139</v>
+      </c>
+      <c r="F4" s="4">
+        <v>327</v>
+      </c>
+      <c r="G4" s="4">
+        <v>397</v>
+      </c>
+      <c r="H4" s="4">
+        <v>382</v>
+      </c>
+      <c r="I4" s="4">
+        <v>732</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1949</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1348</v>
+      </c>
+      <c r="L4" s="4">
+        <v>15</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>25</v>
+      </c>
+      <c r="T4" s="4">
+        <v>37</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>3</v>
+      </c>
+      <c r="W4" s="4">
+        <v>25</v>
+      </c>
+      <c r="X4" s="4">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>2746</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C5" s="4">
+        <v>109</v>
+      </c>
+      <c r="D5" s="4">
+        <v>98</v>
+      </c>
+      <c r="E5" s="4">
+        <v>149</v>
+      </c>
+      <c r="F5" s="4">
+        <v>338</v>
+      </c>
+      <c r="G5" s="4">
+        <v>431</v>
+      </c>
+      <c r="H5" s="4">
+        <v>423</v>
+      </c>
+      <c r="I5" s="4">
+        <v>842</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1883</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1466</v>
+      </c>
+      <c r="L5" s="4">
+        <v>14</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>20</v>
+      </c>
+      <c r="T5" s="4">
+        <v>50</v>
+      </c>
+      <c r="U5" s="4">
+        <v>3</v>
+      </c>
+      <c r="V5" s="4">
+        <v>3</v>
+      </c>
+      <c r="W5" s="4">
+        <v>28</v>
+      </c>
+      <c r="X5" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>2968</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1041</v>
+      </c>
+      <c r="C6" s="4">
+        <v>121</v>
+      </c>
+      <c r="D6" s="4">
+        <v>109</v>
+      </c>
+      <c r="E6" s="4">
+        <v>140</v>
+      </c>
+      <c r="F6" s="4">
+        <v>381</v>
+      </c>
+      <c r="G6" s="4">
+        <v>425</v>
+      </c>
+      <c r="H6" s="4">
+        <v>416</v>
+      </c>
+      <c r="I6" s="4">
+        <v>841</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2102</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1463</v>
+      </c>
+      <c r="L6" s="4">
+        <v>14</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>23</v>
+      </c>
+      <c r="T6" s="4">
+        <v>64</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3</v>
+      </c>
+      <c r="V6" s="4">
+        <v>7</v>
+      </c>
+      <c r="W6" s="4">
+        <v>32</v>
+      </c>
+      <c r="X6" s="4">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>3016</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>9911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="4">
+        <v>119</v>
+      </c>
+      <c r="D7" s="4">
+        <v>114</v>
+      </c>
+      <c r="E7" s="4">
+        <v>147</v>
+      </c>
+      <c r="F7" s="4">
+        <v>366</v>
+      </c>
+      <c r="G7" s="4">
+        <v>443</v>
+      </c>
+      <c r="H7" s="4">
+        <v>436</v>
+      </c>
+      <c r="I7" s="4">
+        <v>845</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2051</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1440</v>
+      </c>
+      <c r="L7" s="4">
+        <v>13</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>9</v>
+      </c>
+      <c r="P7" s="4">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>21</v>
+      </c>
+      <c r="T7" s="4">
+        <v>68</v>
+      </c>
+      <c r="U7" s="4">
+        <v>4</v>
+      </c>
+      <c r="V7" s="4">
+        <v>6</v>
+      </c>
+      <c r="W7" s="4">
+        <v>29</v>
+      </c>
+      <c r="X7" s="4">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>3148</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1136</v>
+      </c>
+      <c r="C8" s="4">
+        <v>121</v>
+      </c>
+      <c r="D8" s="4">
+        <v>121</v>
+      </c>
+      <c r="E8" s="4">
+        <v>156</v>
+      </c>
+      <c r="F8" s="4">
+        <v>386</v>
+      </c>
+      <c r="G8" s="4">
+        <v>489</v>
+      </c>
+      <c r="H8" s="4">
+        <v>452</v>
+      </c>
+      <c r="I8" s="4">
+        <v>853</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1455</v>
+      </c>
+      <c r="L8" s="4">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>8</v>
+      </c>
+      <c r="P8" s="4">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>4</v>
+      </c>
+      <c r="R8" s="4">
+        <v>3</v>
+      </c>
+      <c r="S8" s="4">
+        <v>15</v>
+      </c>
+      <c r="T8" s="4">
+        <v>63</v>
+      </c>
+      <c r="U8" s="4">
+        <v>4</v>
+      </c>
+      <c r="V8" s="4">
+        <v>6</v>
+      </c>
+      <c r="W8" s="4">
+        <v>26</v>
+      </c>
+      <c r="X8" s="4">
+        <v>63</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>3259</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>9854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1114</v>
+      </c>
+      <c r="C9" s="4">
+        <v>120</v>
+      </c>
+      <c r="D9" s="4">
+        <v>106</v>
+      </c>
+      <c r="E9" s="4">
+        <v>141</v>
+      </c>
+      <c r="F9" s="4">
+        <v>389</v>
+      </c>
+      <c r="G9" s="4">
+        <v>463</v>
+      </c>
+      <c r="H9" s="4">
+        <v>455</v>
+      </c>
+      <c r="I9" s="4">
+        <v>841</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1919</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1511</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>7</v>
+      </c>
+      <c r="P9" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>4</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>12</v>
+      </c>
+      <c r="T9" s="4">
+        <v>71</v>
+      </c>
+      <c r="U9" s="4">
+        <v>5</v>
+      </c>
+      <c r="V9" s="4">
+        <v>6</v>
+      </c>
+      <c r="W9" s="4">
+        <v>30</v>
+      </c>
+      <c r="X9" s="4">
+        <v>71</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>23</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>3246</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>9797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1132</v>
+      </c>
+      <c r="C10" s="4">
+        <v>130</v>
+      </c>
+      <c r="D10" s="4">
+        <v>106</v>
+      </c>
+      <c r="E10" s="4">
+        <v>137</v>
+      </c>
+      <c r="F10" s="4">
+        <v>388</v>
+      </c>
+      <c r="G10" s="4">
+        <v>492</v>
+      </c>
+      <c r="H10" s="4">
+        <v>447</v>
+      </c>
+      <c r="I10" s="4">
+        <v>822</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1830</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1477</v>
+      </c>
+      <c r="L10" s="4">
+        <v>11</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>6</v>
+      </c>
+      <c r="P10" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>4</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2</v>
+      </c>
+      <c r="S10" s="4">
+        <v>7</v>
+      </c>
+      <c r="T10" s="4">
+        <v>62</v>
+      </c>
+      <c r="U10" s="4">
+        <v>5</v>
+      </c>
+      <c r="V10" s="4">
+        <v>6</v>
+      </c>
+      <c r="W10" s="4">
+        <v>24</v>
+      </c>
+      <c r="X10" s="4">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>3248</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1177</v>
+      </c>
+      <c r="C11" s="4">
+        <v>126</v>
+      </c>
+      <c r="D11" s="4">
+        <v>116</v>
+      </c>
+      <c r="E11" s="4">
+        <v>135</v>
+      </c>
+      <c r="F11" s="4">
+        <v>384</v>
+      </c>
+      <c r="G11" s="4">
+        <v>458</v>
+      </c>
+      <c r="H11" s="4">
+        <v>445</v>
+      </c>
+      <c r="I11" s="4">
+        <v>808</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1682</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1403</v>
+      </c>
+      <c r="L11" s="4">
+        <v>19</v>
+      </c>
+      <c r="M11" s="4">
+        <v>6</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>5</v>
+      </c>
+      <c r="P11" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>9</v>
+      </c>
+      <c r="R11" s="4">
+        <v>3</v>
+      </c>
+      <c r="S11" s="4">
+        <v>9</v>
+      </c>
+      <c r="T11" s="4">
+        <v>66</v>
+      </c>
+      <c r="U11" s="4">
+        <v>11</v>
+      </c>
+      <c r="V11" s="4">
+        <v>6</v>
+      </c>
+      <c r="W11" s="4">
+        <v>23</v>
+      </c>
+      <c r="X11" s="4">
+        <v>66</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>30</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>3445</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1184</v>
+      </c>
+      <c r="C12" s="4">
+        <v>126</v>
+      </c>
+      <c r="D12" s="4">
+        <v>117</v>
+      </c>
+      <c r="E12" s="4">
+        <v>129</v>
+      </c>
+      <c r="F12" s="4">
+        <v>403</v>
+      </c>
+      <c r="G12" s="4">
+        <v>463</v>
+      </c>
+      <c r="H12" s="4">
+        <v>470</v>
+      </c>
+      <c r="I12" s="4">
+        <v>933</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1737</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1449</v>
+      </c>
+      <c r="L12" s="4">
+        <v>28</v>
+      </c>
+      <c r="M12" s="4">
+        <v>8</v>
+      </c>
+      <c r="N12" s="4">
+        <v>4</v>
+      </c>
+      <c r="O12" s="4">
+        <v>8</v>
+      </c>
+      <c r="P12" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>10</v>
+      </c>
+      <c r="R12" s="4">
+        <v>5</v>
+      </c>
+      <c r="S12" s="4">
+        <v>15</v>
+      </c>
+      <c r="T12" s="4">
+        <v>90</v>
+      </c>
+      <c r="U12" s="4">
+        <v>14</v>
+      </c>
+      <c r="V12" s="4">
+        <v>12</v>
+      </c>
+      <c r="W12" s="4">
+        <v>27</v>
+      </c>
+      <c r="X12" s="4">
+        <v>90</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>3446</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>10714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1203</v>
+      </c>
+      <c r="C13" s="4">
+        <v>128</v>
+      </c>
+      <c r="D13" s="4">
+        <v>114</v>
+      </c>
+      <c r="E13" s="4">
+        <v>134</v>
+      </c>
+      <c r="F13" s="4">
+        <v>401</v>
+      </c>
+      <c r="G13" s="4">
+        <v>450</v>
+      </c>
+      <c r="H13" s="4">
+        <v>469</v>
+      </c>
+      <c r="I13" s="4">
+        <v>928</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1780</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1412</v>
+      </c>
+      <c r="L13" s="4">
+        <v>29</v>
+      </c>
+      <c r="M13" s="4">
+        <v>8</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4">
+        <v>9</v>
+      </c>
+      <c r="P13" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>9</v>
+      </c>
+      <c r="R13" s="4">
+        <v>5</v>
+      </c>
+      <c r="S13" s="4">
+        <v>17</v>
+      </c>
+      <c r="T13" s="4">
+        <v>79</v>
+      </c>
+      <c r="U13" s="4">
+        <v>15</v>
+      </c>
+      <c r="V13" s="4">
+        <v>9</v>
+      </c>
+      <c r="W13" s="4">
+        <v>27</v>
+      </c>
+      <c r="X13" s="4">
+        <v>79</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>3450</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>10521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1284</v>
+      </c>
+      <c r="C14" s="4">
+        <v>135</v>
+      </c>
+      <c r="D14" s="4">
+        <v>121</v>
+      </c>
+      <c r="E14" s="4">
+        <v>136</v>
+      </c>
+      <c r="F14" s="4">
+        <v>409</v>
+      </c>
+      <c r="G14" s="4">
+        <v>455</v>
+      </c>
+      <c r="H14" s="4">
+        <v>472</v>
+      </c>
+      <c r="I14" s="4">
+        <v>959</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1753</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1400</v>
+      </c>
+      <c r="L14" s="4">
+        <v>30</v>
+      </c>
+      <c r="M14" s="4">
+        <v>8</v>
+      </c>
+      <c r="N14" s="4">
+        <v>4</v>
+      </c>
+      <c r="O14" s="4">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>10</v>
+      </c>
+      <c r="R14" s="4">
+        <v>5</v>
+      </c>
+      <c r="S14" s="4">
+        <v>16</v>
+      </c>
+      <c r="T14" s="4">
+        <v>78</v>
+      </c>
+      <c r="U14" s="4">
+        <v>14</v>
+      </c>
+      <c r="V14" s="4">
+        <v>8</v>
+      </c>
+      <c r="W14" s="4">
+        <v>24</v>
+      </c>
+      <c r="X14" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>43</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>3553</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>10368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1275</v>
+      </c>
+      <c r="C15" s="4">
+        <v>148</v>
+      </c>
+      <c r="D15" s="4">
+        <v>120</v>
+      </c>
+      <c r="E15" s="4">
+        <v>132</v>
+      </c>
+      <c r="F15" s="4">
+        <v>432</v>
+      </c>
+      <c r="G15" s="4">
+        <v>453</v>
+      </c>
+      <c r="H15" s="4">
+        <v>458</v>
+      </c>
+      <c r="I15" s="4">
+        <v>991</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1691</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1402</v>
+      </c>
+      <c r="L15" s="4">
+        <v>16</v>
+      </c>
+      <c r="M15" s="4">
+        <v>6</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>6</v>
+      </c>
+      <c r="P15" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>7</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2</v>
+      </c>
+      <c r="S15" s="4">
+        <v>7</v>
+      </c>
+      <c r="T15" s="4">
+        <v>21</v>
+      </c>
+      <c r="U15" s="4">
+        <v>7</v>
+      </c>
+      <c r="V15" s="4">
+        <v>3</v>
+      </c>
+      <c r="W15" s="4">
+        <v>7</v>
+      </c>
+      <c r="X15" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>3489</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>10334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13566</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1486</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1332</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1675</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4604</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5419</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5325</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10395</v>
+      </c>
+      <c r="J16" s="4">
+        <v>22378</v>
+      </c>
+      <c r="K16" s="4">
+        <v>17226</v>
+      </c>
+      <c r="L16" s="4">
+        <v>211</v>
+      </c>
+      <c r="M16" s="4">
+        <v>36</v>
+      </c>
+      <c r="N16" s="4">
+        <v>17</v>
+      </c>
+      <c r="O16" s="4">
+        <v>98</v>
+      </c>
+      <c r="P16" s="4">
+        <v>356</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>60</v>
+      </c>
+      <c r="R16" s="4">
+        <v>26</v>
+      </c>
+      <c r="S16" s="4">
+        <v>187</v>
+      </c>
+      <c r="T16" s="4">
+        <v>749</v>
+      </c>
+      <c r="U16" s="4">
+        <v>85</v>
+      </c>
+      <c r="V16" s="4">
+        <v>75</v>
+      </c>
+      <c r="W16" s="4">
+        <v>302</v>
+      </c>
+      <c r="X16" s="4">
+        <v>749</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>356</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>39014</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>119705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30DF8C3-2D20-1C4E-9D1A-D9DEDCF0815D}">
+  <dimension ref="A1:AD42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="T2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="4">
+        <v>332</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1106</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4029</v>
+      </c>
+      <c r="E3">
+        <f>T3-B3</f>
+        <v>601</v>
+      </c>
+      <c r="F3">
+        <f>AC3-C3</f>
+        <v>1640</v>
+      </c>
+      <c r="G3">
+        <f>AD3-D3</f>
+        <v>5146</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="T3" s="4">
+        <v>933</v>
+      </c>
+      <c r="U3" s="4">
+        <v>15</v>
+      </c>
+      <c r="V3" s="4">
+        <v>30</v>
+      </c>
+      <c r="W3" s="4">
+        <v>37</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>2746</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="4">
+        <v>356</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1192</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4191</v>
+      </c>
+      <c r="E4">
+        <f>T4-B4</f>
+        <v>650</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F14" si="0">AC4-C4</f>
+        <v>1776</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G14" si="1">AD4-D4</f>
+        <v>5309</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="T4" s="4">
+        <v>1006</v>
+      </c>
+      <c r="U4" s="4">
+        <v>14</v>
+      </c>
+      <c r="V4" s="4">
+        <v>24</v>
+      </c>
+      <c r="W4" s="4">
+        <v>50</v>
+      </c>
+      <c r="X4" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>2968</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="4">
+        <v>370</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1222</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4406</v>
+      </c>
+      <c r="E5">
+        <f>T5-B5</f>
+        <v>671</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1794</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>5505</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>22</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="T5" s="4">
+        <v>1041</v>
+      </c>
+      <c r="U5" s="4">
+        <v>14</v>
+      </c>
+      <c r="V5" s="4">
+        <v>28</v>
+      </c>
+      <c r="W5" s="4">
+        <v>64</v>
+      </c>
+      <c r="X5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>64</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>3016</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>9911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="4">
+        <v>380</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1245</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4336</v>
+      </c>
+      <c r="E6">
+        <f>T6-B6</f>
+        <v>701</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1903</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5633</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>29</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="T6" s="4">
+        <v>1081</v>
+      </c>
+      <c r="U6" s="4">
+        <v>13</v>
+      </c>
+      <c r="V6" s="4">
+        <v>29</v>
+      </c>
+      <c r="W6" s="4">
+        <v>68</v>
+      </c>
+      <c r="X6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>29</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>29</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>3148</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="4">
+        <v>398</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1327</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4309</v>
+      </c>
+      <c r="E7">
+        <f>T7-B7</f>
+        <v>738</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1932</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>5545</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>27</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="T7" s="4">
+        <v>1136</v>
+      </c>
+      <c r="U7" s="4">
+        <v>11</v>
+      </c>
+      <c r="V7" s="4">
+        <v>28</v>
+      </c>
+      <c r="W7" s="4">
+        <v>63</v>
+      </c>
+      <c r="X7" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>3259</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>9854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="4">
+        <v>367</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1307</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4271</v>
+      </c>
+      <c r="E8">
+        <f>T8-B8</f>
+        <v>747</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1939</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5526</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="T8" s="4">
+        <v>1114</v>
+      </c>
+      <c r="U8" s="4">
+        <v>11</v>
+      </c>
+      <c r="V8" s="4">
+        <v>23</v>
+      </c>
+      <c r="W8" s="4">
+        <v>71</v>
+      </c>
+      <c r="X8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>71</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>3246</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>9797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="4">
+        <v>373</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1327</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4129</v>
+      </c>
+      <c r="E9">
+        <f>T9-B9</f>
+        <v>759</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1921</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>5343</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>27</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="T9" s="4">
+        <v>1132</v>
+      </c>
+      <c r="U9" s="4">
+        <v>11</v>
+      </c>
+      <c r="V9" s="4">
+        <v>21</v>
+      </c>
+      <c r="W9" s="4">
+        <v>62</v>
+      </c>
+      <c r="X9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>24</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>62</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>21</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>3248</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="4">
+        <v>377</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1287</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3893</v>
+      </c>
+      <c r="E10">
+        <f>T10-B10</f>
+        <v>800</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2158</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>6197</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>26</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="T10" s="4">
+        <v>1177</v>
+      </c>
+      <c r="U10" s="4">
+        <v>19</v>
+      </c>
+      <c r="V10" s="4">
+        <v>30</v>
+      </c>
+      <c r="W10" s="4">
+        <v>66</v>
+      </c>
+      <c r="X10" s="4">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>23</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>66</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>3445</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="4">
+        <v>372</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1336</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4119</v>
+      </c>
+      <c r="E11">
+        <f>T11-B11</f>
+        <v>812</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2110</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>6595</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>53</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>37</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="T11" s="4">
+        <v>1184</v>
+      </c>
+      <c r="U11" s="4">
+        <v>28</v>
+      </c>
+      <c r="V11" s="4">
+        <v>40</v>
+      </c>
+      <c r="W11" s="4">
+        <v>90</v>
+      </c>
+      <c r="X11" s="4">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>90</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>3446</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>10714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="4">
+        <v>376</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1320</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4120</v>
+      </c>
+      <c r="E12">
+        <f>T12-B12</f>
+        <v>827</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2130</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>6401</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="T12" s="4">
+        <v>1203</v>
+      </c>
+      <c r="U12" s="4">
+        <v>29</v>
+      </c>
+      <c r="V12" s="4">
+        <v>40</v>
+      </c>
+      <c r="W12" s="4">
+        <v>79</v>
+      </c>
+      <c r="X12" s="4">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>27</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>79</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>40</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>3450</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>10521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="4">
+        <v>392</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1336</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4112</v>
+      </c>
+      <c r="E13">
+        <f>T13-B13</f>
+        <v>892</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2217</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>6256</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>31</v>
+      </c>
+      <c r="J13">
+        <v>46</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>32</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="T13" s="4">
+        <v>1284</v>
+      </c>
+      <c r="U13" s="4">
+        <v>30</v>
+      </c>
+      <c r="V13" s="4">
+        <v>43</v>
+      </c>
+      <c r="W13" s="4">
+        <v>78</v>
+      </c>
+      <c r="X13" s="4">
+        <v>14</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>78</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>43</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>3553</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>10368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="4">
+        <v>400</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1343</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4084</v>
+      </c>
+      <c r="E14">
+        <f>T14-B14</f>
+        <v>875</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2146</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="T14" s="4">
+        <v>1275</v>
+      </c>
+      <c r="U14" s="4">
+        <v>16</v>
+      </c>
+      <c r="V14" s="4">
+        <v>20</v>
+      </c>
+      <c r="W14" s="4">
+        <v>21</v>
+      </c>
+      <c r="X14" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>21</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>20</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>3489</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>10334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="7">
+        <v>103</v>
+      </c>
+      <c r="I17" s="7">
+        <v>90</v>
+      </c>
+      <c r="J17" s="7">
+        <v>139</v>
+      </c>
+      <c r="K17" s="7">
+        <v>327</v>
+      </c>
+      <c r="L17" s="7">
+        <v>397</v>
+      </c>
+      <c r="M17" s="7">
+        <v>382</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7">
+        <v>732</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1949</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1348</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>10</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="7">
+        <v>109</v>
+      </c>
+      <c r="I18" s="7">
+        <v>98</v>
+      </c>
+      <c r="J18" s="7">
+        <v>149</v>
+      </c>
+      <c r="K18" s="7">
+        <v>338</v>
+      </c>
+      <c r="L18" s="7">
+        <v>431</v>
+      </c>
+      <c r="M18" s="7">
+        <v>423</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7">
+        <v>842</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1883</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1466</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>10</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="7">
+        <v>121</v>
+      </c>
+      <c r="I19" s="7">
+        <v>109</v>
+      </c>
+      <c r="J19" s="7">
+        <v>140</v>
+      </c>
+      <c r="K19" s="7">
+        <v>381</v>
+      </c>
+      <c r="L19" s="7">
+        <v>425</v>
+      </c>
+      <c r="M19" s="7">
+        <v>416</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7">
+        <v>841</v>
+      </c>
+      <c r="P19" s="7">
+        <v>2102</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1463</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>10</v>
+      </c>
+      <c r="V19" s="7">
+        <v>1</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="7">
+        <v>119</v>
+      </c>
+      <c r="I20" s="7">
+        <v>114</v>
+      </c>
+      <c r="J20" s="7">
+        <v>147</v>
+      </c>
+      <c r="K20" s="7">
+        <v>366</v>
+      </c>
+      <c r="L20" s="7">
+        <v>443</v>
+      </c>
+      <c r="M20" s="7">
+        <v>436</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7">
+        <v>845</v>
+      </c>
+      <c r="P20" s="7">
+        <v>2051</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>1440</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>9</v>
+      </c>
+      <c r="V20" s="7">
+        <v>2</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="7">
+        <v>121</v>
+      </c>
+      <c r="I21" s="7">
+        <v>121</v>
+      </c>
+      <c r="J21" s="7">
+        <v>156</v>
+      </c>
+      <c r="K21" s="7">
+        <v>386</v>
+      </c>
+      <c r="L21" s="7">
+        <v>489</v>
+      </c>
+      <c r="M21" s="7">
+        <v>452</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
+        <v>853</v>
+      </c>
+      <c r="P21" s="7">
+        <v>2001</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>1455</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <v>8</v>
+      </c>
+      <c r="V21" s="7">
+        <v>4</v>
+      </c>
+      <c r="W21" s="7">
+        <v>3</v>
+      </c>
+      <c r="X21" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="7">
+        <v>120</v>
+      </c>
+      <c r="I22" s="7">
+        <v>106</v>
+      </c>
+      <c r="J22" s="7">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7">
+        <v>389</v>
+      </c>
+      <c r="L22" s="7">
+        <v>463</v>
+      </c>
+      <c r="M22" s="7">
+        <v>455</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7">
+        <v>841</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1919</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>1511</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0</v>
+      </c>
+      <c r="U22" s="7">
+        <v>7</v>
+      </c>
+      <c r="V22" s="7">
+        <v>4</v>
+      </c>
+      <c r="W22" s="7">
+        <v>1</v>
+      </c>
+      <c r="X22" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="7">
+        <v>130</v>
+      </c>
+      <c r="I23" s="7">
+        <v>106</v>
+      </c>
+      <c r="J23" s="7">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7">
+        <v>388</v>
+      </c>
+      <c r="L23" s="7">
+        <v>492</v>
+      </c>
+      <c r="M23" s="7">
+        <v>447</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
+        <v>822</v>
+      </c>
+      <c r="P23" s="7">
+        <v>1830</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>1477</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0</v>
+      </c>
+      <c r="U23" s="7">
+        <v>6</v>
+      </c>
+      <c r="V23" s="7">
+        <v>4</v>
+      </c>
+      <c r="W23" s="7">
+        <v>2</v>
+      </c>
+      <c r="X23" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="7">
+        <v>126</v>
+      </c>
+      <c r="I24" s="7">
+        <v>116</v>
+      </c>
+      <c r="J24" s="7">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7">
+        <v>384</v>
+      </c>
+      <c r="L24" s="7">
+        <v>458</v>
+      </c>
+      <c r="M24" s="7">
+        <v>445</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7">
+        <v>808</v>
+      </c>
+      <c r="P24" s="7">
+        <v>1682</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>1403</v>
+      </c>
+      <c r="S24" s="7">
+        <v>6</v>
+      </c>
+      <c r="T24" s="7">
+        <v>2</v>
+      </c>
+      <c r="U24" s="7">
+        <v>5</v>
+      </c>
+      <c r="V24" s="7">
+        <v>9</v>
+      </c>
+      <c r="W24" s="7">
+        <v>3</v>
+      </c>
+      <c r="X24" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="7">
+        <v>126</v>
+      </c>
+      <c r="I25" s="7">
+        <v>117</v>
+      </c>
+      <c r="J25" s="7">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7">
+        <v>403</v>
+      </c>
+      <c r="L25" s="7">
+        <v>463</v>
+      </c>
+      <c r="M25" s="7">
+        <v>470</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7">
+        <v>933</v>
+      </c>
+      <c r="P25" s="7">
+        <v>1737</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>1449</v>
+      </c>
+      <c r="S25" s="7">
+        <v>8</v>
+      </c>
+      <c r="T25" s="7">
+        <v>4</v>
+      </c>
+      <c r="U25" s="7">
+        <v>8</v>
+      </c>
+      <c r="V25" s="7">
+        <v>10</v>
+      </c>
+      <c r="W25" s="7">
+        <v>5</v>
+      </c>
+      <c r="X25" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="7">
+        <v>128</v>
+      </c>
+      <c r="I26" s="7">
+        <v>114</v>
+      </c>
+      <c r="J26" s="7">
+        <v>134</v>
+      </c>
+      <c r="K26" s="7">
+        <v>401</v>
+      </c>
+      <c r="L26" s="7">
+        <v>450</v>
+      </c>
+      <c r="M26" s="7">
+        <v>469</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7">
+        <v>928</v>
+      </c>
+      <c r="P26" s="7">
+        <v>1780</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>1412</v>
+      </c>
+      <c r="S26" s="7">
+        <v>8</v>
+      </c>
+      <c r="T26" s="7">
+        <v>5</v>
+      </c>
+      <c r="U26" s="7">
+        <v>9</v>
+      </c>
+      <c r="V26" s="7">
+        <v>9</v>
+      </c>
+      <c r="W26" s="7">
+        <v>5</v>
+      </c>
+      <c r="X26" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="7">
+        <v>135</v>
+      </c>
+      <c r="I27" s="7">
+        <v>121</v>
+      </c>
+      <c r="J27" s="7">
+        <v>136</v>
+      </c>
+      <c r="K27" s="7">
+        <v>409</v>
+      </c>
+      <c r="L27" s="7">
+        <v>455</v>
+      </c>
+      <c r="M27" s="7">
+        <v>472</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7">
+        <v>959</v>
+      </c>
+      <c r="P27" s="7">
+        <v>1753</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>1400</v>
+      </c>
+      <c r="S27" s="7">
+        <v>8</v>
+      </c>
+      <c r="T27" s="7">
+        <v>4</v>
+      </c>
+      <c r="U27" s="7">
+        <v>10</v>
+      </c>
+      <c r="V27" s="7">
+        <v>10</v>
+      </c>
+      <c r="W27" s="7">
+        <v>5</v>
+      </c>
+      <c r="X27" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="7">
+        <v>148</v>
+      </c>
+      <c r="I28" s="7">
+        <v>120</v>
+      </c>
+      <c r="J28" s="7">
+        <v>132</v>
+      </c>
+      <c r="K28" s="7">
+        <v>432</v>
+      </c>
+      <c r="L28" s="7">
+        <v>453</v>
+      </c>
+      <c r="M28" s="7">
+        <v>458</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7">
+        <v>991</v>
+      </c>
+      <c r="P28" s="7">
+        <v>1691</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1402</v>
+      </c>
+      <c r="S28" s="7">
+        <v>6</v>
+      </c>
+      <c r="T28" s="7">
+        <v>2</v>
+      </c>
+      <c r="U28" s="7">
+        <v>6</v>
+      </c>
+      <c r="V28" s="7">
+        <v>7</v>
+      </c>
+      <c r="W28" s="7">
+        <v>2</v>
+      </c>
+      <c r="X28" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FQ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="FK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" sqref="A1:FQ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
     <col min="18" max="18" width="35" customWidth="1"/>
-    <col min="19" max="20" width="22.5703125" customWidth="1"/>
-    <col min="21" max="21" width="23.5703125" customWidth="1"/>
-    <col min="22" max="22" width="24.140625" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" customWidth="1"/>
-    <col min="24" max="24" width="22.140625" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" customWidth="1"/>
-    <col min="26" max="26" width="24.42578125" customWidth="1"/>
-    <col min="27" max="27" width="21.85546875" customWidth="1"/>
-    <col min="28" max="28" width="21.5703125" customWidth="1"/>
-    <col min="29" max="29" width="22.42578125" customWidth="1"/>
-    <col min="30" max="30" width="21.7109375" customWidth="1"/>
-    <col min="31" max="31" width="31.28515625" customWidth="1"/>
-    <col min="32" max="32" width="34.5703125" customWidth="1"/>
+    <col min="19" max="20" width="22.5" customWidth="1"/>
+    <col min="21" max="21" width="23.5" customWidth="1"/>
+    <col min="22" max="22" width="24.1640625" customWidth="1"/>
+    <col min="23" max="23" width="23.5" customWidth="1"/>
+    <col min="24" max="24" width="22.1640625" customWidth="1"/>
+    <col min="25" max="25" width="22.5" customWidth="1"/>
+    <col min="26" max="26" width="24.5" customWidth="1"/>
+    <col min="27" max="27" width="21.83203125" customWidth="1"/>
+    <col min="28" max="28" width="21.5" customWidth="1"/>
+    <col min="29" max="29" width="22.5" customWidth="1"/>
+    <col min="30" max="30" width="21.6640625" customWidth="1"/>
+    <col min="31" max="31" width="31.33203125" customWidth="1"/>
+    <col min="32" max="32" width="34.5" customWidth="1"/>
     <col min="33" max="33" width="28" customWidth="1"/>
     <col min="34" max="34" width="29" customWidth="1"/>
-    <col min="35" max="35" width="29.5703125" customWidth="1"/>
+    <col min="35" max="35" width="29.5" customWidth="1"/>
     <col min="36" max="36" width="29" customWidth="1"/>
-    <col min="37" max="37" width="27.5703125" customWidth="1"/>
+    <col min="37" max="37" width="27.5" customWidth="1"/>
     <col min="38" max="38" width="28" customWidth="1"/>
-    <col min="39" max="39" width="29.85546875" customWidth="1"/>
-    <col min="40" max="40" width="27.28515625" customWidth="1"/>
+    <col min="39" max="39" width="29.83203125" customWidth="1"/>
+    <col min="40" max="40" width="27.33203125" customWidth="1"/>
     <col min="41" max="41" width="27" customWidth="1"/>
-    <col min="42" max="42" width="27.85546875" customWidth="1"/>
-    <col min="43" max="43" width="27.140625" customWidth="1"/>
-    <col min="44" max="44" width="36.7109375" customWidth="1"/>
-    <col min="45" max="45" width="23.7109375" customWidth="1"/>
-    <col min="46" max="46" width="33.42578125" customWidth="1"/>
-    <col min="47" max="47" width="35.28515625" customWidth="1"/>
+    <col min="42" max="42" width="27.83203125" customWidth="1"/>
+    <col min="43" max="43" width="27.1640625" customWidth="1"/>
+    <col min="44" max="44" width="36.6640625" customWidth="1"/>
+    <col min="45" max="45" width="23.6640625" customWidth="1"/>
+    <col min="46" max="46" width="33.5" customWidth="1"/>
+    <col min="47" max="47" width="35.33203125" customWidth="1"/>
     <col min="48" max="48" width="39" customWidth="1"/>
-    <col min="49" max="49" width="36.28515625" customWidth="1"/>
+    <col min="49" max="49" width="36.33203125" customWidth="1"/>
     <col min="50" max="50" width="31" customWidth="1"/>
-    <col min="51" max="51" width="26.5703125" customWidth="1"/>
-    <col min="52" max="52" width="32.28515625" customWidth="1"/>
-    <col min="53" max="53" width="20.140625" customWidth="1"/>
+    <col min="51" max="51" width="26.5" customWidth="1"/>
+    <col min="52" max="52" width="32.33203125" customWidth="1"/>
+    <col min="53" max="53" width="20.1640625" customWidth="1"/>
     <col min="54" max="54" width="32" customWidth="1"/>
-    <col min="55" max="55" width="33.85546875" customWidth="1"/>
-    <col min="56" max="56" width="37.5703125" customWidth="1"/>
-    <col min="57" max="57" width="34.85546875" customWidth="1"/>
-    <col min="58" max="58" width="36.140625" customWidth="1"/>
-    <col min="59" max="59" width="25.140625" customWidth="1"/>
-    <col min="60" max="60" width="30.85546875" customWidth="1"/>
-    <col min="61" max="61" width="26.7109375" customWidth="1"/>
+    <col min="55" max="55" width="33.83203125" customWidth="1"/>
+    <col min="56" max="56" width="37.5" customWidth="1"/>
+    <col min="57" max="57" width="34.83203125" customWidth="1"/>
+    <col min="58" max="58" width="36.1640625" customWidth="1"/>
+    <col min="59" max="59" width="25.1640625" customWidth="1"/>
+    <col min="60" max="60" width="30.83203125" customWidth="1"/>
+    <col min="61" max="61" width="26.6640625" customWidth="1"/>
     <col min="62" max="64" width="30" customWidth="1"/>
     <col min="65" max="67" width="31" customWidth="1"/>
-    <col min="68" max="70" width="31.5703125" customWidth="1"/>
+    <col min="68" max="70" width="31.5" customWidth="1"/>
     <col min="71" max="73" width="31" customWidth="1"/>
-    <col min="74" max="76" width="29.5703125" customWidth="1"/>
+    <col min="74" max="76" width="29.5" customWidth="1"/>
     <col min="77" max="79" width="30" customWidth="1"/>
-    <col min="80" max="82" width="31.85546875" customWidth="1"/>
-    <col min="83" max="85" width="29.28515625" customWidth="1"/>
+    <col min="80" max="82" width="31.83203125" customWidth="1"/>
+    <col min="83" max="85" width="29.33203125" customWidth="1"/>
     <col min="86" max="88" width="29" customWidth="1"/>
-    <col min="89" max="91" width="29.85546875" customWidth="1"/>
-    <col min="92" max="94" width="29.140625" customWidth="1"/>
-    <col min="95" max="97" width="38.7109375" customWidth="1"/>
+    <col min="89" max="91" width="29.83203125" customWidth="1"/>
+    <col min="92" max="94" width="29.1640625" customWidth="1"/>
+    <col min="95" max="97" width="38.6640625" customWidth="1"/>
     <col min="98" max="98" width="18" customWidth="1"/>
     <col min="99" max="99" width="20" customWidth="1"/>
     <col min="100" max="100" width="21" customWidth="1"/>
-    <col min="101" max="101" width="21.5703125" customWidth="1"/>
+    <col min="101" max="101" width="21.5" customWidth="1"/>
     <col min="102" max="102" width="21" customWidth="1"/>
-    <col min="103" max="103" width="19.5703125" customWidth="1"/>
+    <col min="103" max="103" width="19.5" customWidth="1"/>
     <col min="104" max="104" width="20" customWidth="1"/>
-    <col min="105" max="105" width="21.85546875" customWidth="1"/>
-    <col min="106" max="106" width="19.28515625" customWidth="1"/>
+    <col min="105" max="105" width="21.83203125" customWidth="1"/>
+    <col min="106" max="106" width="19.33203125" customWidth="1"/>
     <col min="107" max="107" width="19" customWidth="1"/>
-    <col min="108" max="108" width="19.85546875" customWidth="1"/>
-    <col min="109" max="109" width="19.140625" customWidth="1"/>
-    <col min="110" max="110" width="15.85546875" customWidth="1"/>
-    <col min="111" max="111" width="18.85546875" customWidth="1"/>
-    <col min="112" max="112" width="19.85546875" customWidth="1"/>
-    <col min="113" max="113" width="20.42578125" customWidth="1"/>
-    <col min="114" max="114" width="19.85546875" customWidth="1"/>
-    <col min="115" max="115" width="18.42578125" customWidth="1"/>
-    <col min="116" max="116" width="18.85546875" customWidth="1"/>
-    <col min="117" max="117" width="20.7109375" customWidth="1"/>
-    <col min="118" max="118" width="18.140625" customWidth="1"/>
-    <col min="119" max="119" width="17.85546875" customWidth="1"/>
-    <col min="120" max="120" width="18.7109375" customWidth="1"/>
+    <col min="108" max="108" width="19.83203125" customWidth="1"/>
+    <col min="109" max="109" width="19.1640625" customWidth="1"/>
+    <col min="110" max="110" width="15.83203125" customWidth="1"/>
+    <col min="111" max="111" width="18.83203125" customWidth="1"/>
+    <col min="112" max="112" width="19.83203125" customWidth="1"/>
+    <col min="113" max="113" width="20.5" customWidth="1"/>
+    <col min="114" max="114" width="19.83203125" customWidth="1"/>
+    <col min="115" max="115" width="18.5" customWidth="1"/>
+    <col min="116" max="116" width="18.83203125" customWidth="1"/>
+    <col min="117" max="117" width="20.6640625" customWidth="1"/>
+    <col min="118" max="118" width="18.1640625" customWidth="1"/>
+    <col min="119" max="119" width="17.83203125" customWidth="1"/>
+    <col min="120" max="120" width="18.6640625" customWidth="1"/>
     <col min="121" max="121" width="18" customWidth="1"/>
-    <col min="122" max="122" width="27.5703125" customWidth="1"/>
-    <col min="123" max="123" width="24.28515625" customWidth="1"/>
-    <col min="124" max="124" width="25.28515625" customWidth="1"/>
-    <col min="125" max="125" width="25.85546875" customWidth="1"/>
-    <col min="126" max="126" width="25.28515625" customWidth="1"/>
-    <col min="127" max="127" width="23.85546875" customWidth="1"/>
-    <col min="128" max="128" width="24.28515625" customWidth="1"/>
-    <col min="129" max="129" width="26.140625" customWidth="1"/>
-    <col min="130" max="130" width="23.5703125" customWidth="1"/>
-    <col min="131" max="131" width="23.28515625" customWidth="1"/>
-    <col min="132" max="132" width="24.140625" customWidth="1"/>
-    <col min="133" max="133" width="23.42578125" customWidth="1"/>
+    <col min="122" max="122" width="27.5" customWidth="1"/>
+    <col min="123" max="123" width="24.33203125" customWidth="1"/>
+    <col min="124" max="124" width="25.33203125" customWidth="1"/>
+    <col min="125" max="125" width="25.83203125" customWidth="1"/>
+    <col min="126" max="126" width="25.33203125" customWidth="1"/>
+    <col min="127" max="127" width="23.83203125" customWidth="1"/>
+    <col min="128" max="128" width="24.33203125" customWidth="1"/>
+    <col min="129" max="129" width="26.1640625" customWidth="1"/>
+    <col min="130" max="130" width="23.5" customWidth="1"/>
+    <col min="131" max="131" width="23.33203125" customWidth="1"/>
+    <col min="132" max="132" width="24.1640625" customWidth="1"/>
+    <col min="133" max="133" width="23.5" customWidth="1"/>
     <col min="134" max="134" width="33" customWidth="1"/>
-    <col min="135" max="135" width="31.5703125" customWidth="1"/>
-    <col min="136" max="138" width="26.28515625" customWidth="1"/>
-    <col min="139" max="141" width="27.28515625" customWidth="1"/>
-    <col min="142" max="144" width="27.85546875" customWidth="1"/>
-    <col min="145" max="147" width="27.28515625" customWidth="1"/>
-    <col min="148" max="150" width="25.85546875" customWidth="1"/>
-    <col min="151" max="153" width="26.28515625" customWidth="1"/>
-    <col min="154" max="156" width="28.140625" customWidth="1"/>
-    <col min="157" max="159" width="25.5703125" customWidth="1"/>
-    <col min="160" max="162" width="25.28515625" customWidth="1"/>
-    <col min="163" max="165" width="26.140625" customWidth="1"/>
-    <col min="166" max="168" width="25.42578125" customWidth="1"/>
-    <col min="169" max="171" width="29.85546875" customWidth="1"/>
-    <col min="172" max="172" width="13.85546875" customWidth="1"/>
-    <col min="173" max="173" width="14.28515625" customWidth="1"/>
+    <col min="135" max="135" width="31.5" customWidth="1"/>
+    <col min="136" max="138" width="26.33203125" customWidth="1"/>
+    <col min="139" max="141" width="27.33203125" customWidth="1"/>
+    <col min="142" max="144" width="27.83203125" customWidth="1"/>
+    <col min="145" max="147" width="27.33203125" customWidth="1"/>
+    <col min="148" max="150" width="25.83203125" customWidth="1"/>
+    <col min="151" max="153" width="26.33203125" customWidth="1"/>
+    <col min="154" max="156" width="28.1640625" customWidth="1"/>
+    <col min="157" max="159" width="25.5" customWidth="1"/>
+    <col min="160" max="162" width="25.33203125" customWidth="1"/>
+    <col min="163" max="165" width="26.1640625" customWidth="1"/>
+    <col min="166" max="168" width="25.5" customWidth="1"/>
+    <col min="169" max="171" width="29.83203125" customWidth="1"/>
+    <col min="172" max="172" width="13.83203125" customWidth="1"/>
+    <col min="173" max="173" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -2195,7 +8417,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -2716,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -3237,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -3758,7 +9980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -4279,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -4800,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -5321,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -5842,7 +12064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -6363,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -6884,7 +13106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7405,7 +13627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -7926,7 +14148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2024</v>
       </c>
